--- a/data/hotels_by_city/Dallas/Dallas_shard_238.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_238.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="818">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Hummer1973</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>That green carpet is a little hard to look at. And it carries into your hotel room. I did notice the wallpaper coming off the wall in the bathroom and added a picture for reference. Breakfast was good!! Room was quiet.More</t>
   </si>
   <si>
+    <t>SwimSoccerMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r564069174-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>In town for a sporting event for one night.  Long drive from Houston but room as promised on arrival.  Front Desk staff very friendly and helpful.  The hotel is older and the large room is nice but a bit sparse, needs more furniture.  Breakfast was nice and very unexpected touch of fresh flowers on the tables.  Overall a pleasant stay.More</t>
   </si>
   <si>
+    <t>pambusby8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r563618790-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>The room and hotel itself was clean and nice with friendly staff. HOWEVER, I booked my room weeks in advance and had my confirmation number ready-that should have meant that I would have a room waiting for me. However, I received a phone call from the hotel the day I was due to check in asking if I still planned to stay with them. I told them YES, but it would be a later check in. PROBLEM:  When I arrived, there were no rooms available!!!! They basically said they were so sorry, but it happens!!! So, on that cold, rainy night, after a full day in a gym for a tournament, we had to drive another 15 minutes to go to the hotel that they sent us to. That hotel didn't have the complimentary breakfast we had been expecting, nor a microwave in the room, nor the abundance of restaurants that surrounded the hotel we were expecting. You wonder how I know about the condition of the room? I had booked it for 2 nights---they were full the first night but had room for me on the 2nd. Great disappointment to learn that a reservation held with a credit card and secured with a confirmation number is meaningless at the Fairfield Inn in Mansfield!!!!!More</t>
   </si>
   <si>
+    <t>Joseph R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r551238156-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>Normal Fairfield Inn. Reception area is nice and clean staff well trained. Room seamed to be dated and it shouldn't be. If I remember hotel only open for a few years at best. Recommend a high floor as parking lot is right there.More</t>
   </si>
   <si>
+    <t>wsr429</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r534623337-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>My even-numbered room faced the busy US-287 highway. Unfortunately, the windows don't appear to be double-pained and were not able to sufficiently muffle the traffic noise even into the late night. Be sure to request an odd-numbered room which faces away from the road (which is undergoing a construction project).Otherwise my Fairfield experience was a positive one. The staff are friendly and are happy to accommodate your needs. The free breakfast was wonderful (M-F, 6AM-9:30AM, S-S, 7AM-10AM); Jimmy does a great job of organizing it! If you have time, you can enjoy the indoor pool and spa. My bed had a soft mattress which may or may not be to your liking.Overall, I would stay there again - in an odd-numbered room!More</t>
   </si>
   <si>
+    <t>Anne K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r532092411-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>Online website would not let me cancel, kept giving me an error message. I was violently sick with the stomach flu and couldn't talk on a phone. Wasted $146. Got an email the next day asking me to "rate my stay", sounds like someone checked me in even though I wasn't able to make it. Now I can't get a refund. Stay far away.</t>
   </si>
   <si>
+    <t>Beth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r528029586-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>The reviews were good, my experience... not so great.The good:     Well located     Easy to find      CleanThe bad:     Beds are like sleeping on concrete       slabs; you toss &amp; turn all night     Noisy A/C     Noisy refrigerator      Very tiny TV with remote that only works      within 3 feet of the TV     Cheap scratchy sheets     Cracked bathroom sink     Decor out of someone's frenetic      nightmare Here's the funny part:  As a Marriott  member, I had already checked in remotely. My wait to get my "key" was exceedingly long while the attendant assisted someone making reservations via phone.  When my turn came, the attendant thanked me kindly for being a Marriott member and indicated they had a special chocolate thank you for me; would I like a Kit Kat bar or a Snickers!  Neither cheap candy bar seemed like a treat to me.  I settled on the Snickers as she offered no alternative despite my query.  She handed me a bite sized Snickers!  My response:  Are you kidding; this is an insult!  I will not be returning.More</t>
   </si>
   <si>
+    <t>Elise18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r526904053-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>Customer services was most excellent. We even had a hand written note from the housekeeper! We had a 1st floor room, which is always nice. The ceilings were high. The room was clean and felt very spacious. Breakfast had sausage, turkey sausage, scrambled eggs, cheese omelettes, and the typical fruits, yogurts, breads, along with an oatmeal bar. Microwave and fridge in room. It was a great stay, and if we come to the area again, we will be back.More</t>
   </si>
   <si>
+    <t>Gary B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r512349103-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -376,6 +403,9 @@
   </si>
   <si>
     <t>We stayed at the Fairfield Inn &amp; Suites in Mansfield 08/09 through 08/12/17 to attend a volleyball tournament.  The property is well maintained and clean.  Our room was pretty small compared to other hotel chains I use regularly.  The staff at this location was great.  The managers were friendly. Rick, the maintenance man, is great. He had a kind &amp; encouraging word to say to everyone.  I had the opportunity to over hear one of the managers handle a difficult situation with another customer.  She did a great job listening and responding to the concerns.  The fitness center is small but functional.  They have an indoor pool.  Breakfast was very good.  Our room was on the 2nd level and overlooked Highway 287.  Even though this was fairly close to the highway, the room was very quiet.  There were 3-4 high school volleyball teams staying at this location and there was little noise that could be heard from the teams.  I would definitely consider staying here again, primarily due to the friendliness of the staff.More</t>
+  </si>
+  <si>
+    <t>GwinnettGuy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r508944293-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -414,6 +444,9 @@
 Breakfast in the morning was good, nice selection.  On the way out to our car in the morning we noticed 2 cones blocking 2 spaces right in front of our room the night before were still there.   They had not been moved by the time...Catching up on reviews, stayed in mid December 2016Relocated to this hotel for a 3 night stay after issues at another Fairfield across town.  Checked in later in the evening, 8pm or so.  Desk attendant was nice, didn’t get his name, older guy.  I had read a few reviews about the beds being uncomfortable before we got there and inquired if he was aware of that issue.  He was not but said they had been doing some remodeling so new beds may have been part of it.      When we got to the room it was very warm and we attempted to open the window to cool it off but we could only open the window a few inches on our first floor room.  There was a piece of hardware placed on the track to prevent it from opening further.  Obviously not intended to be used as a fire escape.  Enjoyed the pool and hot tub before going to bed.   The previous reviews about the beds were correct, not very comfortable.  First time I’ve stayed at a Marriot brand property and not had a comfortable bed.   Brand of the mattress was Simmons Beautyrest Hospitality collection.    Breakfast in the morning was good, nice selection.  On the way out to our car in the morning we noticed 2 cones blocking 2 spaces right in front of our room the night before were still there.   They had not been moved by the time we got back in the evening either.  When we asked about them the desk attendant was unaware of why they were there.  They were there for our entire stay, 3 separate desk attendants and a manager during the day had no idea why.  There were only 8 spaces on that side of the building and there was nothing visibly wrong with either of the cone blocked spaces.   Other than the beds we enjoyed our stay.  One thing to keep in mind if you are handicapped.   The handicapped parking is on the end of the building next to the side door.  The side door is not automatic, nor does it have a push button door opener, so you will have to wheel yourself down the sidewalk to the front of the building if you need access through an automatic door.More</t>
   </si>
   <si>
+    <t>Scott_Shield</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r485977529-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>I stayed here earler this week. Let me tell you the Customer Service at this hotel is really good. Forgive me, I do not remember the name of the  gentleman that checked us in, but he was super friendly and helpful. When he found out that we were staying at hotel so kids could go swimming, he put us next to the pool.I wanted to give this hotel a shout out for doing such a good job.The next day we stayed at another Marriott property ( Residence Inn Highlander Blvd) and the customer service at that hotel was terrible. Thank goodness at least  Fairfield Inn did a good job.More</t>
   </si>
   <si>
+    <t>Tony9876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r482795669-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>I got a better than average rate on a weeknight and found a clean, fairly new hotel. One issue: the GPS info in my iPad map had them a few miles farther south on US 287 than they are.  And now, when I put that address in on a Google Maps search, the street view that comes up also shows a location that's rural, along the highway.  Not sure what's up with that. I had a room on the highway side of the hotel, and even though they are a pretty good distance back from the highway, the road noise level was pretty high. Seems they should have built it perpendicular to the highway.  So ask for a room on the back side. Comfortable bed and a clean room; didn't get a chance to try the breakfast. Recommended hotel choice.More</t>
   </si>
   <si>
+    <t>Lisa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r478356744-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>Great hotel for groups. Came with 2 sports teams and families. Clean hotel, beds comfortable, friendly staff. Includes breakfast which had something for everyone. We love the coffee/tea and workout facility 24 hours. Nice sitting area for big groups to socialize. More</t>
   </si>
   <si>
+    <t>rtcrawford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r475664312-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -513,6 +555,9 @@
     <t>Reserved handicap room, for 4 a night stay, was given to someone else because they wanted to give us an upgraded handicap room.  Shower had a 6 inch high step over and no seat.  Nearly fell twice in the shower because the shower bars are too slick to hold on to because of the design. No bars around the toilet.  In addition the hot water in the shower would change to ice cold water while taking a shower.  Management said they were going to get the party in the Handicap room to move to another room and move us into that room the next day.  Repacked our luggage and went to the front desk to switch rooms the next day and were told the room was not going to be available.  Had to go back to the room we had been in and unpack our luggage again.  On our 3rd day we were told again they found us a handicap room and we could move that afternoon.  At that point chose not to move as we didn't trust the statement that a room was truly available and we did not want to have to pack and repack our luggage again.  We have reason to stay at a hotel in Mansfield several times a year  but will NEVER stay at this Fairfield again.More</t>
   </si>
   <si>
+    <t>sonospia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r466338727-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>The hotel was very clean (just finished a full cleaning of carpets throughout the hotel), the staff were very helpful and polite, and the room was very clean, orderly, and I slept very well.  The morning breakfast was well appointed and clean.  I did use the laundry facilities and found them a bit older and tired.  They worked well, but were old.  The location is on the access road off the highway, very accessible.  Overall this is a good hotel the is worth the money.More</t>
   </si>
   <si>
+    <t>104lff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r464310808-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t>This was one of the few hotels that had occupancy available on the two consecutive nights that we needed.  Never having stayed in Fairfield Inn and Suites before, we were reluctant but needed the two nights in the same hotel so we decided to take it.  Much to our surprise, the rooms were exceptionally clean and fresh looking with the bright carpet and drapery. The staff did let us check in an hour early without a problem.  Only one problem that we encountered and it was the thin walls; we could hear adults talking and babies crying in the next room.  Breakfast was very good and the breakfast area was well attended by the staff, keeping everything fresh and full.  We would stay in Fairfield again without a problem.More</t>
   </si>
   <si>
+    <t>Blaine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r443526423-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -588,6 +639,9 @@
     <t>We stayed one night in early December after an evening wedding. Room was clean and quiet. Bed was average - not great if you are a back sleeper. Carpet looked fairly new but was striking and rather outlandish - not sure what they were going for with the look. We stayed in a suite which was not spacious but had ample room. I immediately commented that I'm glad we didn't downgrade to a standard room (my son was supposed to come but plans changed so it was just my wife and I.)Everything is about what you get in any room at this price. Continental breakfast was better than HI Express. There is an exhaust fan in the bathroom, which is a great feature and sadly missing in many hotels. Bottom line: I would stay here again for a convenient low cost hotel. It's not a charming B &amp; B. It's clean, with a good breakfast. And did I mention the exhaust fan?More</t>
   </si>
   <si>
+    <t>mtbkb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r440478016-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>Front desk staff super friendly and very courteous. Allowed me to check in 2 hours early because they had my room cleaned and available. Room was clean and bed very comfortable. The standard room is a bit small, but I was there for less than 24 hours so this was not a big deal to me. There were no washcloths in the bathroom. Water pressure and hot water was great.More</t>
   </si>
   <si>
+    <t>Joey P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r438183891-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -639,6 +696,9 @@
     <t>My three night stay was excellent from the moment I walked into the hotel. Although I checked in via app on my phone, the front desk employee was gracious to change my room as I needed a quieter room not facing the highway. She did so pleasantly with courtesy and friendliness.The room was large and I genuinely appreciate the step in shower. Generally I stay at this hotel every year about the same time for business purposes. The hotel was not overly noisy and it allowed me to get my work done in the evenings, the breakfast buffet was ample and the staff accommodating.As a Lifetime Platinum Elite, I appreciate the Marriott facilities where the staff are attentive and exceed expectations and this Fairfield Inn certainly does!  Thank you.More</t>
   </si>
   <si>
+    <t>LynW922</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r434154543-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -661,6 +721,9 @@
   </si>
   <si>
     <t>From the time I walked through the door till the time I left two days later, the staff at this hotel was outstanding.  Their friendliness, courtesy and over-the-top service were very impressive. The facility itself was clean and welcoming. The breakfast buffet which is included in the price, was as good as I've seen at even pricier hotels. My room was on the freeway side and I could hear the traffic, but it wasn't so bad that it kept me awake.  Bathroom was a good size and step-in shower was very nice.  I'll say again, the staff went over and above in a couple of instances and everyone from the desk clerk to the maid were very friendly and efficient.  I would not hesitate to stay there again.More</t>
+  </si>
+  <si>
+    <t>BraTravel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r431188964-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -692,6 +755,9 @@
 Breakfast is decent with the same offerings everyday: scrambled eggs, sausage patties occasionally the addition of bacon, wheat tortillas, salsa, grated cheese, boiled eggs, oatmeal, 2 waffle makers (one Texas-shaped - may FAVE!), various dry cereal, various yogurt, variety of muffins and bread, a good variety of fresh fruit (whole and chopped), various juices. The coffee is good and hot with a wide variety of condiments. I like that I can take my breakfast back to my room to eat. I'm not a morning person and the one morning I tried eating in the dining room, a young lady was talking very loudly on her phone the entire time. The attendant is a bit of a curmudgeon but I think he could be nice in a different setting. His has...Your average hotel stay... I was a bit disappointed to find out there was no kitchen as this was an extended stay. The room is a bit small but adequate. Bed is comfortable as are linens and pillows. It's the noisiest room I've stayed in in a while... guests stomping overhead, noisy guests in the hallway, slamming doors, rattling walls, some mystery knocking noise in the bathroom and what sounds like a power surge every time the AC next door comes on. We even experienced a quick power outage that knocked out the TV satellite which eventually came back minus CBS (a DirecTV repairman is supposed to be here today). Breakfast is decent with the same offerings everyday: scrambled eggs, sausage patties occasionally the addition of bacon, wheat tortillas, salsa, grated cheese, boiled eggs, oatmeal, 2 waffle makers (one Texas-shaped - may FAVE!), various dry cereal, various yogurt, variety of muffins and bread, a good variety of fresh fruit (whole and chopped), various juices. The coffee is good and hot with a wide variety of condiments. I like that I can take my breakfast back to my room to eat. I'm not a morning person and the one morning I tried eating in the dining room, a young lady was talking very loudly on her phone the entire time. The attendant is a bit of a curmudgeon but I think he could be nice in a different setting. His has got to be a thankless job. The lady that cleans the tables is very friendly and nice.I appreciate that the AC worked well, decent shower pressure and friendly cleaning and maintenance staff. Front desk clerk went out of her way to get my husband and me a couple of plastic spoons.Fairly convenient location with shopping and restaurants close by but a little awkward to get to, requiring a big circle of driving but easy to get back to the hotel.More</t>
   </si>
   <si>
+    <t>Delaterian F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r431064310-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -716,6 +782,9 @@
     <t>Me and family just went for a getaway. The only negative I have to say is that the beds were not as comfortable as I thought they would be. Other than that the staff was friendly and the hotel itself was pretty nice and clean.More</t>
   </si>
   <si>
+    <t>maggie5arkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r431050962-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -731,6 +800,9 @@
     <t>This is a great place to stay.  Clean rooms.  Paul Mitchell bath products.  Breakfast is great and included.  Scrambled eggs, sausage (one morning both pork and turkey available), boiled eggs, shredded cheese, salsa, muffins, cereals, juices, coffee, yogurt, waffle machine, milk, fresh cut up fruit as well as bananas and apples.  Check in and out was quick and friendly.  Indoor pool and hot tub.  Only complaint is the chemicals in the pool are so strong.  They burned my eyes and I never even got in the pool, just stayed in the room watching family swim.  Condensation was always dripping off the windows.  I propped open the outside door to help with ventilation.  Another guest had to keep walking outside for fresh air.  Fix this problem and the place would be perfect.  Was a little loud our second night.  Sounded like a basketball team playing on the floor above us.  All night.  Guess they were having a good time. haha!  All employees we encountered were very friendly.More</t>
   </si>
   <si>
+    <t>Jim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r425625256-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -752,6 +824,9 @@
     <t>The hotel is actually very nice and has some food nearby.  The check in man was great.  The breakfast was very good.  It had tortillas for breakfast tacos.  It's a good location for me.  The shower is in the bath tub and the tub does not have any non slip help in it.  When I slipped and fell I hit my head, elbow, knee and hip badly enough that I had to walk with a limp for 3 days.  I had to cancel two rounds of golf because the twisting hurt my knee too badly.  I reported the incident to the front desk girl who said she would inform management.  No accident report was filed and very little to no concern on the hotel's part has been shown.  I did get an email a few days later, after complaining to the Marriott corporate office.  Thanks for your concern.  I didn't go to the doctor because I knew I'd be OK in a few days and didn't want to run up any expenses.  But the horrible lack of response nor caring on this hotel's part compels me to give you some advise.  If you ever get hurt at this hotel, go to the doctor right away.  Call your lawyer and let them handle the situation directly with the hotel or their lawyers.  Maybe they'll respond to them.  Don't try to be nice with this group.More</t>
   </si>
   <si>
+    <t>Chris H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r423168792-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -776,6 +851,9 @@
     <t>This could be a great property in the DFW suburbs, but the mattress' are the worst of any hotel that I have stayed at. The property is exceptionally clean, the rooms are fairly updated and the free breakfast is among the best, however the mattress is exceptionally hard and leaves a lot to be desired. More</t>
   </si>
   <si>
+    <t>kimberlyelder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r413282509-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -803,6 +881,9 @@
     <t>We were met with beyond excellent customer service, cheerful and helpful staff, clean and quiet rooms, and a beautiful facility. I had a large group staying for a business convention and Manolo at the front desk was incredibly helpful to me. He made check in effortless and quick. Because of the excellent service and beautiful facility, I plan to book our group's rooms at this hotel from now on! It is about a 20 minutes drive to our meeting location, but the drive is NOTHING because of the awesome experience we had at this hotel. We will definitely be back!!!More</t>
   </si>
   <si>
+    <t>Dallashooter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r395513383-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -818,12 +899,18 @@
     <t>This hotel is much quieter than those in the city - and it has a country feel from where it is located.  The wind blows like you are on the prairie.  Staff are excellent - rooms are quiet and clean.  Breakfast was better than most for a free meal.  A lot of variety</t>
   </si>
   <si>
+    <t>moviefan3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r389179141-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
     <t>389179141</t>
   </si>
   <si>
+    <t>143linda33701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r379382865-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -843,6 +930,9 @@
   </si>
   <si>
     <t>I've traveled all over the world visiting many hotels and for the price, the quality is outstanding.  I enjoyed great breakfasts with the hot coffee ready between 5-5:30 AM even though breakfast doesn't begin until 6.  They serve both hot and cold items with a really good variety from hot oatmeal to eggs, sausage and bacon to several varieties of breads.  Though I didn't try them, the Texas shaped waffle where a hit with the kids.I can't say enough good things about the staff.  When you have an extended stay, they become part of your family and when it's a good experience that happens, it lowers the tensions of stressful business situations as soon as you arrive back to the room. Thank you to those who were so kind and went out of their way to please me in every way.I look forward to returning to clean, spacious room, great food and a fabulous staff that makes you feel so welcome!Linda - Los AngelesMore</t>
+  </si>
+  <si>
+    <t>Akj05002</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r379166609-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -872,6 +962,9 @@
 Now we get to the issue that I can't seem to shake. Their wireless internet was throttled at...and I am not making this up...256kb/s. That's right...not 100mb,...I was in town for business recently and completely forgot to book a hotel for my week long stay. Luckily this place was available, fairly cheap for the quality listed, and was in a decent proximity to where I was working. The property itself is incredibly clean, in a great location, and had all the amenities that you would usually need. I didn't get into the pool or fitness area but they both looked well stocked and very clean. The person that checked me in (I really wish I could remember his name since he was AMAZING!) was one of the most polite and friendly persons I have ever dealt with in my hotel stays and that is saying something as I travel a ton. I have been in 5 star hotels that pale in comparison to the attentiveness of...I really wish I had wrote the name down...He was the employee of the month the month of April and/or March if that helps anyone reading this from the hotel chain! The room was very spacious and clean and the air worked very well. The bed was comfortable and the bathroom had plenty of space and was immaculate. Everything about the room was as good as it could have been/their star rating would indicate. Now we get to the issue that I can't seem to shake. Their wireless internet was throttled at...and I am not making this up...256kb/s. That's right...not 100mb, not 50 or 20 or 10 or even 1mb/s...256kb. That is only ~5 times faster than DIAL UP! I know that they are attempting to sell their "premium" internet and make a profit but I find it almost offensive that they would restrict the internet so badly in an attempt to do so. It was nearly impossible to get any work done and entertainment was almost completely out of the question. I would actually stay at this hotel more often, even though it was slightly out of my way, if not for this one issue.The hotel was a 5/5 rating with the exception of the internet.More</t>
   </si>
   <si>
+    <t>Tracie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r371441407-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -896,6 +989,9 @@
     <t>My experience is ongoing.  I have stayed in other Mansfield hotels, only because the Fairfield was sold out!  The staff is fantastic, always helpful and courteous.  The breakfast is top rate.  The hotel is super clean and comfortable.  I always feel welcome and appreciated!  Stay Here!!!More</t>
   </si>
   <si>
+    <t>H L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r358064340-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1019,9 @@
     <t>I selected this hotel for a one night stay being close to where I need to be and also close to shops and restaurants.Check in by Rochelle was friendly and fast. I was given a room on the 3rd floor, on the highway side to the north west. There were workers working on the roof on the other side of reception. They were moving to my side of the building next morning.I liked my room, it had 2 queen beds, but still very spacious and also had a microwave and fridge. The room was very clean. The bathroom and shower were excellent.I had a quiet night's rest and did hear someone on the roof for a couple of minutes in the morning. They stopped work as the wind was very strong.Breakfast at 7:30 was very good, there was a better range of hot food than some other hotels at this level.All the staff were very, very cheerful and friendly at this hotel. The reception and business desk area also looked comfortable, although I did not use the facility.However, I did decide to change hotel as there is still work on the roof.More</t>
   </si>
   <si>
+    <t>Gerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r351742557-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1049,9 @@
     <t>We recently stayed at this Fairfield location.  Property looks fresh and new.  We had a Queen Suite which was large, well decorated, and very comfortable.  All the things you would expect and almost always receive with Marriott!One of the best features though, with any property is the staff, and the way they treat guests.  Our first impression was with Chris at the front desk.  He was friendly, accommodating, and was very interested in getting us checked in quickly and comfortably.  We were traveling with our daughter who, just the week before, had had major surgery, and Chris was very focused on getting us into the best room possible, and making our stay a great one!We would recommend this Fairfield to everyone.More</t>
   </si>
   <si>
+    <t>Ezio264</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r350282136-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1079,9 @@
     <t>Nice and comfortable hotel,great staff, good location,early breakfast so you go work ready and fully charge.Coffee hot and ready all the timeIt is close to shops, restaurants,fast food not far from Fort Worth and Dallas, Very good *****More</t>
   </si>
   <si>
+    <t>KarenFromTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r340742812-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1100,9 @@
     <t>I stayed here 2 weekends in a row to attend business meetings in the area. I did not sleep well because thd mattresses are very hard (not firm, really really hard). The autoclosers in the room doors cause a LOT of noisy door slamming day and night. The room cleaning staff had loud group discussions in the hall and were very noisy from early until afternoon.To the positive side, the staff at the front desk is extremely pleasant and very helpful.  The large breakfast buffet was great! The regular rooms are offered at a good value.As for the location: there is no restaurant within walking distance. This place could use a good local diner next door where nothing currently exists. Mansfield is just full of chain restaurants, but most are on the oposite side of Highway 287, not convenient to the Fairfield.More</t>
   </si>
   <si>
+    <t>Chris R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r335699261-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1130,9 @@
     <t>Don't come here expecting to get any kind of breakfast buffet. It's not due to lack of variety. But you do have to have food on your buffet in order to eat. I went down about 9 o'clock and there was no breakfast meats or bagels. The coffee was out and  the lines were long waiting for more. I walked over to talk to the manager he seemed oblivious to the situation. His response to me was I'll get over there to help in a minute. I'm generally not a continental breakfast kind of guy but I cannot stand hotels that offer it then begrudge those who would partake of it. ￼ More</t>
   </si>
   <si>
+    <t>Jeanne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r328011260-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1151,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>336tracyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r326746585-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1061,6 +1175,9 @@
     <t>I reserved a king size room on a high floor, away from the elevator and highway as defined in my profile and on the request.  I received confirmation that the king size room was reserved with late check in guarantee.  I have stayed at this hotel many times so I know how noisy the highway side can be.  I received a courtesy call from the hotel midday of my arrival date as they wanted to confirm my plans were still to arrive and to see if I had any special requests.  I arrived at the hotel at 7:30 pm only to be told that my reserved room was not available and that the room was also on the front side of the highway.  I was given no explanation as to why the sudden change only "sorry for the inconvenience".  At this time it was late and options to find another hotel were few.  The parking lot did not appear full so it was also hard for me to believe their were no other room options available.  Seems being a loyal Marriott rewards traveler did not matter to them.More</t>
   </si>
   <si>
+    <t>Sondra G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r322767977-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1076,6 +1193,9 @@
     <t>The Fairfield was a good hotel, and about what I expected from the brand and price point.  Rooms were clean and comfortable, and wifi was easy to deal with.  The breakfast was good, with hot and fresh options.  The location isn't a walking distance to much of anything, but if you have a car, it's a short drive to an assortment of shopping and chain restaurants.My only complaint...  The bedside clock radio had a super-bright light.  I finally had to toss a towel over it so I could sleep.  One of my coworkers said she had the same problem.</t>
   </si>
   <si>
+    <t>Scott N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r316184004-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1091,6 +1211,9 @@
     <t>I've stayed at this hotel for close to 100 nights over the past 4 years and the people at the front desk have always been very nice.  The rooms are always clean and I've always enjoyed my stay there.  If only they had installed their shower doors correctly.</t>
   </si>
   <si>
+    <t>200nightsontheroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r312441223-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1232,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>mesadaisy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r294364718-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1262,9 @@
     <t>I stayed at Marriott hotels worldwide but never a Fairfield Inn prior to Mansfield TX.  It was a most comfortable stay for our family. The staff was accommodating, the pool clean with plenty of towels, room was large enough for a comfortable night's sleep. I am looking forward to the breakfast just down the hallway as I am still lounging in the comfort of this bed.  Well done once again Marriott.More</t>
   </si>
   <si>
+    <t>Brenda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r293857441-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1280,9 @@
     <t>This was  a clean hotel. The rooms were nice and comfortable!  The staff was very welcoming and helpful! Breakfast was good and plenty of choices to choose from! I recommend it if your in Mansfield. Internet available with printer.  Pool and workroom also at hotel! Both were clean and ready to use. Best part of the hotel was the friendly staff!!!</t>
   </si>
   <si>
+    <t>greenbulletblues</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r286927902-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1307,9 @@
     <t>The room was OK, but I was not impressed, I expected more.  The shower had what appeared to be mold, but I did not get down to see if it would come off.  The counter top in the bath was marked up badly by something another guest had spilled, perhaps nail polish remover, I thought it was bad enough that the hotel should have replaced it.  The breakfast was better than most if you're a sausage and eggs type person. Check in/ check out was good. General cleanliness of grounds was good. Staff was good.More</t>
   </si>
   <si>
+    <t>Angie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r286098753-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1328,9 @@
     <t>We will definitely stay here again. It was very clean. The free breakfast was super, including hot sausage, scrambled eggs, boiled eggs, tortilla for breakfast tacos, waffle maker, fruit and cut up fruit, cereals, yogurts, etc. More</t>
   </si>
   <si>
+    <t>3392mary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r275188207-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1352,9 @@
     <t>This hotel was average toliet running after flush noisey to interstate traffic had asked for room not on side of interstate was told problem had been taken care of with extra caulking around window seal still could hear traffic with all the rain they had in tx the hall way window was leaking of water they placed a towel around the window to keep water out which was an eye soar,  we stayed on second floor house keeping and staff was really nice rooms clean was not like the other marriott fairfield inn  that we stayed before this was more of average hotel but for the price it was nice and cleanMore</t>
   </si>
   <si>
+    <t>Travelingfamilia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r273133868-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1382,9 @@
     <t>We took our children here during spring break so they could swim indoors. We don't live very far from the hotel. I typically don't look to stay in Fairfield Inns because I thought they were the low end hotel of the Marriott brand. Boy, I was wrong! The front desk lady made it feel like we were a guest in her home. The rooms were very clean and breakfast was good too! While we were checking out my baby started crying and we were out of milk. The front desk lady went out of her way to help us get Apple juice from the breakfast bar although it was already closed! I was very impressed! Can't say enough about this hotel!More</t>
   </si>
   <si>
+    <t>MurrayH3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r267371069-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1400,9 @@
     <t>Breakfast is Middle of the road.   Instant Oatmeal.  Same Scrambled eggs, pork or turkey sausage links with quality bacon.   Make your own WafflesThe Cold cereal is boxed with 2% as the only real option though there was Non Fat by the gallon periodically.   Std Orange or Apple Juice..The Bananas was almost always brown though the Oranges and apples were first rate.The rooms were definitely above average.   Nice beds and pillows with Microwave and refrig in each room.</t>
   </si>
   <si>
+    <t>TravelingM-L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r263376043-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1430,9 @@
     <t>Put the address in your GPS and you get the wrong location.  Call the hotel and ask for directions and they don't know where they are.  The hotel is on the frontage road and the highway noise is LOUD and the standard rooms are small.  We spent the night here last night and listened to the cars and trucks on the freeway all night.  May be the rooms on the back side of the property are ok, but I would not stay here again in a room that fronted the freeway.More</t>
   </si>
   <si>
+    <t>Anna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r261852280-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1304,6 +1454,9 @@
     <t>I stayed at this hotel in February.  I was there for a week and had the king size suite. It was very well kept and clean. The layout of the room was great especially for a an extended stay. The bed was comfortable and the breakfast was excellent. More</t>
   </si>
   <si>
+    <t>Dean M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r260465245-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1322,6 +1475,9 @@
     <t>We stayed here in mid-March.  We had a 2 queen bed suite.  Pros:  The staff, they were all very friendly.  Lexis was very helpful (best wishes on your up coming baby girl).  Do it yourself coffee bar (Coffee, tea and hot chocolate) available in lobby!!  The breakfast (besides the pool) it was the grandkids’ favorite thing.  Heated pool and spa!!!!  Location.  Rooms were quiet.  Hotel was very clean.  Exercise room had free weights.  Fruit available throughout the day!!!  Nice seating area with fireplace &amp; TV in lobby.  Newspapers available in AM!!!  Free WiFiCons:  The beds were ROCK hard, very uncomfortable.  The rooms had small odor, the only thing we could match it to was Chex-mix.   The door was very hard to hold open, the arm that closed the door was very strong.  There was very strong odor of chlorine!!!  The chlorine odor made it hard to use the exercise room (it was located right next to the pool).  Only 1 of the 2 treadmills was working.  The exercise room was very small.  The key card kept failing.  I know I listed more cons then pros, but we enjoyed our stay and would return without hesitation.  Would recommendMore</t>
   </si>
   <si>
+    <t>Razinski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r255131619-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +1502,9 @@
     <t>This hotel is just a little worn around the edges. Bathroom had mould and was only superficially clean. Room was fine, although a little dated with "fixed" carpet. Breakfast was not bad, but serving food on styrofoam plates, with plastic cutlery and paper cups for coffee is not doing this hotel any good. It makes it all taste cheap and nasty. More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r254772162-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1370,6 +1529,9 @@
     <t>We made this reservation while on the road during a long car trip. We ended up getting a flat tire around 11pm and ended up having to stay in another town. The hotel did not refund our money since it wasn't a 24 hours notice. Well, pretty stupid since the reservation was made only 4 hours before the planned reservation, how could a 24 hr notice ever be given?? Pretty lousy I think! Nice way to make a buck. Take a short notice reservation but require an impossible 24hr cancellation policy. More</t>
   </si>
   <si>
+    <t>Tim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r242568472-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1584,9 @@
   </si>
   <si>
     <t>We stayed one night here.  Check-in was smooth and professional.  Hotel was clean.  Our room was clean and nice.  Bed was comfy!  Indoor pool and hot tub was nice, although chemicals were very heavy in the air.  Breakfast was great with a large selection including, scrambled, boiled and fried eggs, sausage, Texas shaped waffles, bagels, dry cereals, milk, juice and fresh fruit!  We will be coming back!More</t>
+  </si>
+  <si>
+    <t>Rich N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r236194944-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1467,6 +1632,9 @@
 The pool and exercise room were...I needed a retreat to getaway, work, and have some alone time to focus on my business.I chose the Fairfield in Mansfield, TX.I had quite a bit of work to do, so I brought my big ole desktop computer. It had all of my files and would have been a pain to transfer it all to my laptop. So, I hauled it in and set it up.The lobby and lounge were very clean. It is a fairly new hotel and was well kept on the inside and outside.The staff was very friendly and helpful. I got checked in and got things set up... almost.I realized in my haste to pack that I left my mouse and keyboard at home... ugh!  (maybe I should have brought my laptop).I went down to the lobby to get a soda. I was going to go across the highway to Target and buy a new one. I told the woman at the front desk what I did. She went back and told her manager. The manager came out with a keyboard and mouse for me to use for the 3 days I was going to be there!! That... that right there is going beyond the average!It was such a huge relief. I went to work.Other Things:Breakfast was fantastic. I enjoyed their breakfast very much. The breakfast crew was very helpful.The pool and exercise room were nice. Enjoyed swimming some laps and relaxing in the hot tub.I would recommend this hotel for a weekend getaway, a business retreat, a short holiday, a very inexpensive way to use your Marriott points (one of the cheapest in the area), etc.I could not find anything wrong... it was all good.If you had to choose between the Fairfield and the Holiday Inn Express down the road... choose the Fairfield.More</t>
   </si>
   <si>
+    <t>KingDuVast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r227274561-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1659,9 @@
     <t>I travel two/three times per year in US from Italy and this time I've stopped in this hotel for some days. I usually stay in this kind of hotel - let's say medium level - like Holiday inn, West Bestern and son on. This was first time i've been in this hotel chain. The room is not so big as in other places I mention, but quality was a little bit better (bigger bathroom, large shower, better overall materials). Marriot's touch is here. Breakfast have more choices than the competitors in the same area (at least for what I've tried).On the other side, A/C (as always) is noisy and with poor controls.A little bit more expensive than other, but the small difference worth the choice.Better if you can book a room not facing the highway, with A/C off the traffic on the HW can be disturbing. Recommended for short-middle term stays.More</t>
   </si>
   <si>
+    <t>Stephen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r221414892-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1683,9 @@
     <t>There aren't a lot of options around Mansfield but the accomodations and service are great here.The rooms and hotel seem like new and are very luxurious especially for the price.  The Front Desk staff are very friendly and helpful.  All around a very good dal.More</t>
   </si>
   <si>
+    <t>goodtravel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r220860498-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1704,9 @@
     <t>We were going to spend a night or two in Mansfield while helping our daughter and her husband move into their new home.  We reserved one night (Sunday $121 per night) and then the next morning requested another night or two...the employee at the front desk gave me a higher rate for Monday and Tuesday, but she said if I reserved the room on line the rate would be lower. (She said there was availability.)  I check on line but the rate was still higher than $121.  We are Marriott Silver Elite rewards members (whatever that means and AAA), so I check with the Hampton Inn &amp; Suites (Hilton) which is next to the Fairfield.  Their rate was $99.75 per night!  So we checked out of the Marriott and into the Hilton for another three nights.  I can compare these hotels which are very similar in vintage.  The Marriott's carpet was hideous...this didn't bother my husband, but  the carpet in our room reminded me on a casino's busy and gaudy floor covering.  Anyway, the bed was okay and the breakfast was okay...but if you're staying in the area check out the Hampton Suites too...better and cheaper (and our room was larger)!!More</t>
   </si>
   <si>
+    <t>Bryan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r219041897-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1729,9 @@
   </si>
   <si>
     <t>Place was so nice I had to write a quick review even before I checked out. Had to spend 3 nights at the Fairfield in Mansfield, Texas. Very lean hotel with a very pleasant and helpful staff. By the way they have a hot breakfast in the morning that's pretty tasty. The hotel has easy highway access and, its close to the areas attractions. So it looks like the discount chains are upping their game. Great place to stay folks!!!More</t>
+  </si>
+  <si>
+    <t>deezigner</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r217119797-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1579,6 +1759,9 @@
 The breakfast...My two sons &amp; I stayed here for my nephews wedding and loved it!  We arrived at 3pm and the girl at the front desk was having trouble with her computer but got it going fairly fast.  We heard to ask for the top floor but that was already full.  The 2nd floor was where most our family members stayed and we had a room at the back, so we heard no highway noise.  The front desk was very nice when we told them one of keys didn't work and we had misplaced another.  They replaced them quickly with no problem.The king suite was perfect for the three of us and our room ended up being a nice gathering place for other family members as well.  The rooms are clean with a nice bed &amp; plenty of good pillows (some soft, some hard).  The housekeeping staff was very quick to bring us extra linens for the pull out bed, then we found the package of linens in the closet.  Turns out it tells you right on the pull out bed,oops! The pull out sofa was fine and that extra room was nice to spread out.  We appreciated the in room refrigerator and niche to keep snacks.  I particularly liked the large bathroom and good, strong shower.  One of my sons thought the water was soft and it took a while to dry off but I liked it.The breakfast was very good!  Lots of fruit, cereals, muffins/bagels/toast, scrambled eggs &amp; sausages, juice, tea &amp; coffee.  It wasn't too crowded as they have plenty of seating.  The decor is a little bright for my taste but being an interior designer, I'm a little biased.  The vertical ribbon like wallcovering in the eating area makes you dizzy and some of the bright colored corridor carpet was too much.  I know that Marriott corporate likes things bright, so no big deal.Overall it was ideal for Wedding party and guests to stay.  Very convenient to the rehearsal dinner &amp; wedding site.  The lobby is a nice meeting place and my sons enjoyed the pool too.  I would highly recommend this hotel and would stay here again.More</t>
   </si>
   <si>
+    <t>Gaetan777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r216088052-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1603,6 +1786,9 @@
     <t>Overall the price is ok but be sure to book/ask a room at the back of the hotel as the hotel is just in front of a motor way.  Gym is small but at least they have one.  You can relax at the swimming pool and Jacuzzi.  The hotel does not serve lunch/dinner food and has no bar :'(More</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r214810277-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1618,6 +1804,9 @@
     <t>We stayed here as part of a group and we were all happy with this pick.  The front desk and staff were very friendly and accommodating.  The rooms were clean and comfortable.  I normally bring my own pillow, but theirs were actually very good.  We really like when the bedding is all white and theirs were.  The breakfast was good and had a lot of choices.  We will stay here again.</t>
   </si>
   <si>
+    <t>Nancy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r214261160-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1636,6 +1825,9 @@
     <t>We were in Dallas for a business meeting and stayed at Fairfield Inn. The front desk staff were very friendly and helpful. We arrived after 10:00pm  and everything was ready for us. The room was small but extremely comfortable. The pillows were perfect because there were 2 hard and 2 soft. The shower was huge with good water pressure. There was no bathtub which was fine with us. The room had a small refrigerator and microwave. The breakfast each morning was the best I have ever seen! Tortilla shells, sausage, bacon, scrambled eggs to make breakfast tortillas and fresh cut grapefruit and fruit salad. I would highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>Linda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r213114388-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1654,6 +1846,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Richard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r213078756-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1664,6 +1859,9 @@
   </si>
   <si>
     <t>Very friendly staff during check in.  Lobby is nicely decorated and equipped.  Room was very clean and comfortable.  Breakfast selection was better than most fake egg breakfast offered by hotels, overall breakfast selection was nice.</t>
+  </si>
+  <si>
+    <t>notyours</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r212110644-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1688,6 +1886,9 @@
 At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work...I recently spent 3 nights at this property while in town on business.  To be honest I don't have very high expectations of Fairfield Inns, just something simple and clean.  I will say this hotel positively wowed me from the start.  Upon check in the clerk (whose name I sadly didn't get) saw my name on my work shirt and immediately checked me in.  She was very friendly and explained where everything was in the hotel.  She advised that they were booked solid that night and then offered me a drink and a cookie.  She then gave me suggestions for dinner and directions.  Upon returning after dinner she asked me how I enjoyed it.  The hotel itself is one of the cleanest I've ever seen.  It is so well taken care of that I was hard pressed to find any defect or fault in maintenance.  Everything seemed brand new, the floor in the lobby positively glowed.  My room was spotless.  I had not encountered this particular design in a Fairfield.  The bathroom with a walk-in shower was huge.  The design was very contemporary with bright colors.  It was tastefully done.  Maybe the hotel was recently remodeled, maybe it was just well taken care of.  At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work when I returned the housekeeper was just getting to my room.  She seem mortified that I had returned before she completed.  She apologized profusely and her english was limited.  She quickly left and came back with the supervisor who explained to me that everyone checked out of the hotel today and they had been really busy.  She was very apologetic and I told her not to worry about it as I was only popping in to drop off some stuff.  When I came back an hour later the room was spotless.  I also spoke with the GM (again didn't get her name) who was very professional and friendly.  She came right out and said they were trying to be the #1 hotel in the area and if I came across any problems to let her know immediately.  Many of the staff had signed a customer service promise poster that was hanging by the elevator.  Every staff member would greet you pleasantly when they came in contact with you.  The front desk person, regardless of who, always said goodbye when you left and hello when you came in.  They were all very helpful.  There is just something about being in a business that is well run with happy employees.  The...More</t>
   </si>
   <si>
+    <t>Tammy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r204104334-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1709,6 +1910,9 @@
     <t>Our Dance Company - "On Our Toes" stayed at this hotel this past weekend.  We've stayed at many hotels for competitions over the past 10 years and I can not remember a hotel ever being this accommodating.We experienced excellent service from the time we checked in until - after we'd left our stay...Check in was very friendly!  We usually book in a group but rarely show up together which was the case this weekend.  Check in staff was very friendly and help us sort out our rooms, and made sure we were still grouped together.  We were offered a snack upon arriving.  Very nice after a 3+ hour trip!The breakfast staff opened early so our girls could get a good hot breakfast before competition.  They had also prepared ziplock bags of grapes and oranges for the dancers to take with them for a snack.When we got back to the hotel we had goody bags waiting for the girls.   After we left I thought I left a bag.  I called the hotel and although the housekeeping office was closed the clerk looked through the log and even went outside to see if I'd left it on the bench.  We found it!If ever in the area, this will be our first choice because they went above and beyond to make our stay enjoyable.We wiThis hotelMore</t>
   </si>
   <si>
+    <t>Peggy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r193857346-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1727,6 +1931,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>wmralls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r177797812-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1745,6 +1952,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>JessP2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r166805933-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1763,6 +1973,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>WLF_0788</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r165075376-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1781,6 +1994,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>TruthBTold80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r163630602-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2009,9 @@
     <t xml:space="preserve">My family of four had a decent one night stay here. We were pleased with the location and appearance of the hotel. Our room was a bit smelly. The pool and hot tub were nice maybe a little to much on the chemicals. Bathrooms were clean and large. Breakfast had many selections but we were not able to eat in the cafe area due to overcrowding. Staff was nice and helpful at check-in.  Overall a good value. </t>
   </si>
   <si>
+    <t>jmstover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r163027539-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1811,6 +2030,9 @@
     <t>Marriott was giving 5,000 points for staying twice at a Fairfield so I thought I'd give this one a try as the exterior photos looked good.  How can I go wrong if the outside looks good, right?  I freely confess that this hotel is beautiful and it's fairly new.  The front desk clerk was very friendly and helpful and she checked me in early.  When I was done working I went to the fitness center and did an hour on the elliptical.  The equipment is nice Precor with TVs.  There are no sanitizing wipes to clean the equipment when you're done so good luck with that.  I came back to the room to shower and there was a big line of mold under the clear caulking in the bottom of the shower.  I uploaded a photo of this for your viewing pleasure.  Do these hotel general managers even do rounds with their housekeeping supervisor and maintenance person?  How can you not see this big black line of mold in the bottom of a white shower?  Maintenance needs to scrape up the caulking and re-caulk with white caulk.  And if the general manager doesn't think it's important to do room rounds at least monthly then they should at least train their housekeeping staff to write work orders when they see maintenance issues like this.  This is actually a nice hotel for a Fairfield with just a couple exceptions dragging down my...Marriott was giving 5,000 points for staying twice at a Fairfield so I thought I'd give this one a try as the exterior photos looked good.  How can I go wrong if the outside looks good, right?  I freely confess that this hotel is beautiful and it's fairly new.  The front desk clerk was very friendly and helpful and she checked me in early.  When I was done working I went to the fitness center and did an hour on the elliptical.  The equipment is nice Precor with TVs.  There are no sanitizing wipes to clean the equipment when you're done so good luck with that.  I came back to the room to shower and there was a big line of mold under the clear caulking in the bottom of the shower.  I uploaded a photo of this for your viewing pleasure.  Do these hotel general managers even do rounds with their housekeeping supervisor and maintenance person?  How can you not see this big black line of mold in the bottom of a white shower?  Maintenance needs to scrape up the caulking and re-caulk with white caulk.  And if the general manager doesn't think it's important to do room rounds at least monthly then they should at least train their housekeeping staff to write work orders when they see maintenance issues like this.  This is actually a nice hotel for a Fairfield with just a couple exceptions dragging down my rating.More</t>
   </si>
   <si>
+    <t>StaceyH44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r158073619-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1826,6 +2048,9 @@
     <t xml:space="preserve">We purchased our room for 2 nights on Priceline, and received a better price than going through the Marriott website.The front desk personnel were very polite and helpful. The (free) continental breakfast had a good variety of fresh fruits, pastries, cereals and, my kid's favorite- the TEXAS waffle iron!The room was clean and comfortable. Not overly spacious- but we just used it to sleep, so it served its purpose. </t>
   </si>
   <si>
+    <t>Crickettgirl64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r155240300-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2064,9 @@
   </si>
   <si>
     <t xml:space="preserve">We are waiting on a call from management in regards to finding a towel neatly folded and placed on the towel rack in the bathroom. When getting in the shower, unfolded the towel to find 2 bloody spots on it.  It wasn't a stain but bright red smeared blood. The girl at the desk offered no apologies or even a comment.  We were so tired after traveling all day or would have left. I slept terrible worrying if I was even sleeping on clean sheets. We will see what management does. Will call corporate today if our bill isn't adjusted. </t>
+  </si>
+  <si>
+    <t>Scott B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r155100793-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1871,6 +2099,9 @@
 The...After searching MANY hotels options in the surrounding area, we decided to stay here based on location and the price we got it for. I read the reviews and they are pretty much spot on.  Our biggest disappointment was how firm the bed is.  I read this in the reviews, but was hoping it was exaggerated (sadly, it wasn't).  The woman at the front desk was very personable and easy to joke with.  Every encounter with the staff was great! The TV channels are pretty limited and no way to order a movie. Next time, I will bring my laptop and an HDMI cable to hook up to the TV and watch a movie. The room was a little small but it was clean and served its purpose.  Halfway through our stay, as we were heading out at 3 in the afternoon, we asked to have housekeeping change the bedding and refresh the bathroom and they did it without making a big deal about it.We too stayed facing the highway, but kept the air conditioning fan going all the time (I don't like to sleep when its too quiet...you hear every noise) therefore the highway noise was never an issue at all.  The hotel was very quiet (especially being that it was spring break).We slept in both days and didn't make it to breakfast, nor did we use the indoor pool, so I cant comment on them.The overall experience was great (only the firm bed and limited TV stations kept it from a 5 star rating) and I would not hesitate to stay there again!  If you are considering this as an option, I don't think you'll be disappointed.More</t>
   </si>
   <si>
+    <t>Kirk J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r154563563-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1892,6 +2123,9 @@
     <t>I was in Mansfield on business recently, and chose to stay here based on a list of local hotels provided to me. This is a newer hotel, so they have that working in their favor. While the location on a frontage road may be confusing for some, I was able to find the hotel relatively quickly. Upon arrival, I was greeted promptly at the front desk by a very friendly clerk. During the check-in process I received an explanation of where the amenities were located within the hotel, and the hours when they were available. Upon arrival in my room, I was pleased to find it clean without that stale air smell many hotels have. Breakfast the next day was very good for this level of hotel, and they had a variety of choices. The only downside to my stay was that my room was on the highway side of the hotel. The traffic noise picked up considerably in the early morning hours. The next time I stay here, I will be sure to request a room on the back side of the hotel where it should be quieter.More</t>
   </si>
   <si>
+    <t>Dan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r154007797-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1907,6 +2141,9 @@
     <t>I was in Mansfield recently and stayed at this propertyfor the night. The staff that was on when I arrived was very helpful and put me in the exact room that is on my profile. I was able to use the store they have In the lobby and they have all the typical fair. As for the morning breakfast they have those great Texas waffle makers you only get In Texas and all the other great things to get the day started. I will stay here again if I am in the area.</t>
   </si>
   <si>
+    <t>LLCherie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r152978082-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2160,9 @@
   </si>
   <si>
     <t>My family and I stay not too far from this hotel so since we needed a place to stay for a few days while our wood floors were being redid we decided to stay here at Fairfield. Our suite was nicely decorated and the linens were freshly washed and everything seemed pretty clean EXCEPT the carpet. I hate going to hotels and their carpet is soiled with stains and God knows what else. I would have given this hotel a Very Good rating if it were not for the carpet. Also, the breakfast was sub par even though it was free. We were informed that the hotel would be changing their breakfast to a more full breakfast, ie. eggs, bacon, sausage etc. but that it wouldn't take effect until the week after we were gone! So, I guess once the breakfast is upgraded the hotel will be in pretty good standards with the exception of the dirty carpet; which they really need to fix. The hotel staff was very friendly and helpful. We loved the indoor swimming pool and hot tub also.More</t>
+  </si>
+  <si>
+    <t>ilive4sun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r149753682-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1950,6 +2190,9 @@
 The bathroom is average sized, plenty of counter space, with Pantene shampoo and conditioner. One thing that drives me crazy (and it's the same way at the Hilton-Polaris in Columbus, OH)...if you get a king bed, you get a shower only....no tub.  Only queen bed rooms have bathtubs.  What sense does that make?  My husband and I are tall AND I'd like to relax in a tub to shave my legs...sheesh!  The towels aren't overly soft, but the water is too soft for my tastes.  Always feels like the soap isn't rinsing all the way off.
 I agree about the TV channel selection.  Wanted to watch E, but they don't have that one either.  But hey, with computers and all shows now being online, it's no problem in the big scheme of things.  Almost beats searching through too many stations to find something good to watch!
 We bring a sound machine with us on the road,...We are enjoying our 2 day stay here.  Our GPS didn't know it was on the Frontage Road, not directly on Rt. 287, so we had to do a loop around unfortunately.  Once we arrived, we were very happy with the accommodations.  Very friendly staff, well equipped business center, good coffee and decent breakfast choices.  The king room is not large, but okay for a short stay.  I didn't think the bed was too bad, but my husband did comment that it was hard.  The bathroom is average sized, plenty of counter space, with Pantene shampoo and conditioner. One thing that drives me crazy (and it's the same way at the Hilton-Polaris in Columbus, OH)...if you get a king bed, you get a shower only....no tub.  Only queen bed rooms have bathtubs.  What sense does that make?  My husband and I are tall AND I'd like to relax in a tub to shave my legs...sheesh!  The towels aren't overly soft, but the water is too soft for my tastes.  Always feels like the soap isn't rinsing all the way off.I agree about the TV channel selection.  Wanted to watch E, but they don't have that one either.  But hey, with computers and all shows now being online, it's no problem in the big scheme of things.  Almost beats searching through too many stations to find something good to watch!We bring a sound machine with us on the road, so we slept just fine.  The decor is definitely updated from the old Fairfield Inns, and the makeover was needed.  This is a good budget friendly hotel, and we'd stay here again.More</t>
+  </si>
+  <si>
+    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r138369558-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1989,6 +2232,9 @@
 2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too...Positives: beautiful decor, very clean, convenient locationNegatives: very firm mattresses, highway noise, limited television optionsMansfield is one of dozens of towns absorbed by the expanding Dallas/Fort Worth metroplex. Housing and commercial development have been ongoing the twenty years we've been coming this way. However, lodging construction has lagged. A few hotels have finally cropped up along Highway 287. This Fairfield Inn is one of them.Inside and out, this property is exceptionally clean...we didn't even see oil stains in the parking lot! It's tastefully decorated in the latest Fairfield motif. The lobby, breakfast area, pool and room were very attractive and inviting.Our room was equipped with two queen-sized beds, a combo dresser/entertainment armoire, and a small desk and chair. The armoire contained a small refrigerator and microwave. A wired internet connection sat on the desk; wireless is also available.A 32" LCD television sat atop the dresser. Reception was great, but We were disappointed to find relatively few viewing options. Programmng from the major networks was provided, as were a lot of sports channels. But notable favorites like the Food Network were missing.Although our room was attractive, several features were not to our liking.1) The closet was about the size of a broom closet. We were unable to store all our luggage in the small space provided.2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too hard. Our beds felt like 3/4" sheets of plywood with a 2" memory foam top. I slept reasonably well but woke with a stiff back; my wife slept fitfully the entire stay. Some people may prefer them to previous versions, but we like earlier mattresses better.Unfortunately, we've seen this same style of mattress in a number of renovated Marriott properties. Soon, we may not be able to avoid them.3) Our room faced the highway. The muffled sound of trucks could be heard day and night. Rooms on the back side of the hotel are probably quieter. We could also hear muffled voices in one adjacent room, but the occupants seemed to speak rather loudly. We couldn't hear voices from any other room, nor could we hear footsteps above.We particularly enjoyed the pool and whirlpool. The area was also exceptionally clean. Pool depth ranged from 3'-6" to 5'-6". The water was much cooler than expected, even though the pool room is not air conditioned and the...More</t>
   </si>
   <si>
+    <t>DynamiteDave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r130952574-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2010,6 +2256,9 @@
     <t>Stayed at this hotel instead of downtown Fort Worth, mostly because of proximity to relatives in nearby Arlington.  Three day stay.  The room itself was comfortable and clean, everything worked well from the plumbing to the television to the air conditioning.  I had a room on the backside of the hotel and a pretty nice view of a forested area behind the hotel as well as the well-lit rear parking where my car was.  Had to approach the hotel from one direction because it's on a one-way frontage road along the freeway, but driving the 2 mile loop provided a lot of eating and shopping options.  Took my relatives to a great little sushi restaurant less than a mile from the property.  The breakfast buffet was decent, included pastries, waffle maker, fruits, cereals, toaster, boiled eggs.  There was an attendant over the buffet who offered to bring coffee,etc.My convention was in downtown Fort Worth, and it was fairly quick commute with easy access to the freeway.More</t>
   </si>
   <si>
+    <t>rniam69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r130383105-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2025,6 +2274,9 @@
     <t>the staff could not have been better. friendly,helpful and very accomidating.room was very clean. the breakfast was really appealing.  great variety and healthy selections abailable.the only downside was that we did not notice on the reviews that they dont have bathtubs.  large showers but no benches to sit on. unfotunately, a bathtub is a hotel requirement for us.  this is an area we will return to frequently as that is where one granchild lives. safly, we wont book this hotel again due to lack of bathtub.  if this is not a problem, i would definitly recommend this hotel.</t>
   </si>
   <si>
+    <t>travelingfriends63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r128529531-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2043,6 +2295,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>iheartbball</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r126912638-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2058,6 +2313,9 @@
     <t>We traveled here for a basketball tournament with 11 teenage girls. The rooms were clean, the service was excellent, and the breakfast was decent. The price was reasonable. I heard others mention that the beds were hard, but I slept very well. I love the area close to the hotel. There are lots of restaurants, shopping, and a movie theater.We will stay here again!</t>
   </si>
   <si>
+    <t>shawtysantos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r123662250-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2073,6 +2331,9 @@
     <t>Very nice overall..kids loved it and the the breakfast was great wish they had a tub in the king suites but very good choice..</t>
   </si>
   <si>
+    <t>Redleg6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r122731404-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2091,6 +2352,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>mel88hrman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r119204272-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2112,6 +2376,9 @@
     <t>This is a the new format for Fairfield Inn and I like it.  Check in was smooth as I was recognized vas an Marriott Platnum Member.  The lobby is open and fresh. The decor is modern and clean.  The room was very nice.  The bed was large king and comfortable.  There were foam and softer pillows.  The linen was fresh and towels thick compared to other Fairfield.  Breakfast was typical oatmeal the Jimmy Dean sandwiches and other continental favors.  Customer service was good.  I tried to use the fitness center which has up to date treadmills (2) with TV but one was in use and the other did not work.  There is a ski glide as well.  They had no headphones at the front desk as advertised but clerk gave me a free bottle of water.  My advice would be to request a room on the back if you are a light sleeper as the even numbered rooms on the front face the freeway and service road.  It can be noisy.  Overall good stay!  I will stay here again.More</t>
   </si>
   <si>
+    <t>Mussmule</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r117774175-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2127,6 +2394,9 @@
     <t>Stayed at this property when attending a football game @ Cowboy Stadium.  Very clean hotel with friendly staff, convenient to Arlington. Thoroughly enjoyed our stay.</t>
   </si>
   <si>
+    <t>3dvizwiz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r114689864-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2148,6 +2418,9 @@
     <t>I stayed here twice on a driving trip from Denver to Houston, once en route, and once during the return.  My initial stay was wonderful.  Clean, quiet, comfortable, completely functional room, pleasant staff during checkin.  I was looking forward to my return stay the next week.My return stay was... well, challenging.  After four tries to enter the room with either keys or a lock on the particular door that didn't work properly, I was at last assigned a different room after requesting one for several times.  The drapery-pull-rod on the room-darkening drapes came off in my hand, and I needed to cobble together a means for keeping the room reasonably dark.  The staff seemed to be trying to please, but weren't particularly listening to my requests that evening. I never did find out if the other room's lock was working properly or not... but at that point, I didn't care all that much.All in all, it was a confusing experience.  My initial stay was so good that I could try to forgive my return stay, but it's difficult.  I do not know if I would be willing to stay there again.More</t>
   </si>
   <si>
+    <t>Gailygirl123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r101275154-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2169,6 +2442,9 @@
     <t>The overall look of this hotel and the rooms is very nice; however, I was disappointed with the cleanliness and lack of service in some areas.  We had to go to the front desk to get shampoo for our room as well as a couple of other things that were missing.  We also had to ask to have our room cleaned because, by afternoon, no one had come by.  When housekeeping did clean, it was done very poorly.  We picked this hotel specifically for the breakfast and the indoor pool; however, the breakfast was very disappointing as it was not well-stocked and we had to repeatedly ask for things like milk, fruit, etc.  The pool heater was not working (so the spa was cold as well!) and when we asked about it the person at the front desk just said that it may be fixed the next week.  We did meet another family that was staying there for the weekend for their son's birthday specifically for the pool!  Marriott Hotels generally have a great name and reputation; however, I was very disappointed with this hotel.More</t>
   </si>
   <si>
+    <t>rcooper1122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r89298018-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2187,6 +2463,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>Kansastraveller1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r89035094-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2205,6 +2484,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>monakays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r72905311-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2221,6 +2503,9 @@
   </si>
   <si>
     <t>July 2010</t>
+  </si>
+  <si>
+    <t>Louisiana_Man_88</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r59824315-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -2243,6 +2528,9 @@
     <t>We stayed at the Fairfield Inn &amp; Suites in Mansfield during March for a baseball event.  We arrived at noon (a few hours before check-in) and were greeted by a nice gentleman, and he gave us our keys to our room.  
 We went up to our room via the elevator and loved the room.  The hotel has a light green decor, and everything was up to tip-top shape.  The room was very large and of course, clean.  Our suite had 2 queen beds and a pull-out sofa.  A large 42-inch TV (with HD) was also in the room.  The beds were very soft and almost "fit to your shape".  I didn't sleep on the couch, so I can't comment on that.  Also, there was free WiFi in the room, which was moderately fast.  The bathroom was, as said in the last review, very large and extremely clean.  The bathroom had 4 bath towels, 4 hand towels, and 4 wash cloths.  Pantene shampoo and conditioner were also provided.  
 There are many restaurants within 30 seconds of this hotel going to the restaurants and about 5 minutes coming back due to the one way street in front of this property.  Some close restaurants include Buffalo Wild Wind's, MaMa's Pizza, and a steakhouse of some sort.  We then went back to our hotel and went to the small to moderate sized indoor pool and whirlpool.  This place also had a fairly nice fitness...We stayed at the Fairfield Inn &amp; Suites in Mansfield during March for a baseball event.  We arrived at noon (a few hours before check-in) and were greeted by a nice gentleman, and he gave us our keys to our room.  We went up to our room via the elevator and loved the room.  The hotel has a light green decor, and everything was up to tip-top shape.  The room was very large and of course, clean.  Our suite had 2 queen beds and a pull-out sofa.  A large 42-inch TV (with HD) was also in the room.  The beds were very soft and almost "fit to your shape".  I didn't sleep on the couch, so I can't comment on that.  Also, there was free WiFi in the room, which was moderately fast.  The bathroom was, as said in the last review, very large and extremely clean.  The bathroom had 4 bath towels, 4 hand towels, and 4 wash cloths.  Pantene shampoo and conditioner were also provided.  There are many restaurants within 30 seconds of this hotel going to the restaurants and about 5 minutes coming back due to the one way street in front of this property.  Some close restaurants include Buffalo Wild Wind's, MaMa's Pizza, and a steakhouse of some sort.  We then went back to our hotel and went to the small to moderate sized indoor pool and whirlpool.  This place also had a fairly nice fitness center with about 5 pieces of equipment.  Also on site were a business center and guest laundry.  In the morning, we were greeted by a free breakfast.  From 7-10 AM (on weekends), a nice breakfast is served conisting of make-em'-yourself waffles, coffee, fruit pastries, fruit, boiled eggs, muffins, oatmeal, and assorted juices and milk.  Also, there are bacon or sausage, egg, and cheese pre-wrapped biscuits in a refridgerator to be heated in the microwave.  All and all, this place is very nice and clean.  You can't go wrong staying here.More</t>
+  </si>
+  <si>
+    <t>TexasJJ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r46296235-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -2768,43 +3056,47 @@
       <c r="A2" t="n">
         <v>59125</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136553</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2816,56 +3108,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59125</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136554</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2881,56 +3177,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59125</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136555</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2946,56 +3246,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59125</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3013,56 +3317,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59125</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136556</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3078,56 +3386,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59125</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>15918</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3143,50 +3455,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59125</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3198,56 +3514,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59125</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136557</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>108</v>
       </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3263,56 +3583,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59125</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>700</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3332,50 +3656,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59125</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136558</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3393,56 +3721,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59125</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136559</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3454,56 +3786,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59125</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>19432</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3515,56 +3851,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59125</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>8799</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3576,56 +3916,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59125</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136560</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3643,50 +3987,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59125</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136561</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3698,56 +4046,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59125</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136562</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3763,56 +4115,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59125</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136563</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3824,56 +4180,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59125</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136564</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3889,56 +4249,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59125</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>18813</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3954,56 +4318,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59125</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136565</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4021,56 +4389,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59125</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136566</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4082,56 +4454,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="X22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59125</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136567</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4143,56 +4519,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59125</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136568</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4210,56 +4590,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59125</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>18703</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4277,50 +4661,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59125</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>265</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4332,56 +4720,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59125</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136569</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4397,47 +4789,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59125</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136570</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -4456,32 +4852,36 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59125</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136571</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J29" t="s"/>
       <c r="K29" t="s"/>
@@ -4498,51 +4898,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59125</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136572</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4562,50 +4963,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59125</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136573</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4623,41 +5028,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59125</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136574</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -4674,56 +5083,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="X32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59125</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>106549</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4735,56 +5148,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="X33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59125</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>18840</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4796,56 +5213,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="X34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59125</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136575</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4863,56 +5284,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="X35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="Y35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59125</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136576</v>
+      </c>
+      <c r="C36" t="s">
+        <v>349</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4926,50 +5351,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59125</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>6976</v>
+      </c>
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4981,56 +5410,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59125</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>28547</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -5050,50 +5483,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59125</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136577</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5113,50 +5550,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59125</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136578</v>
+      </c>
+      <c r="C40" t="s">
+        <v>381</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="K40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5174,50 +5615,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59125</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>88582</v>
+      </c>
+      <c r="C41" t="s">
+        <v>387</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="J41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="L41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5237,50 +5682,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59125</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136579</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="J42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="K42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5298,50 +5747,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59125</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136580</v>
+      </c>
+      <c r="C43" t="s">
+        <v>400</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="J43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="K43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="L43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5353,56 +5806,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="X43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="Y43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59125</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136581</v>
+      </c>
+      <c r="C44" t="s">
+        <v>410</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="J44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="K44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="L44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5416,41 +5873,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59125</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136582</v>
+      </c>
+      <c r="C45" t="s">
+        <v>416</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="J45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="L45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -5467,56 +5928,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="X45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="Y45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59125</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>73996</v>
+      </c>
+      <c r="C46" t="s">
+        <v>425</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="J46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5528,56 +5993,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="X46" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="Y46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59125</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136583</v>
+      </c>
+      <c r="C47" t="s">
+        <v>432</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="J47" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="L47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5591,50 +6060,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59125</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136584</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5646,56 +6119,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="X48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="Y48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59125</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136585</v>
+      </c>
+      <c r="C49" t="s">
+        <v>450</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="J49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="K49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="L49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5715,50 +6192,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59125</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136586</v>
+      </c>
+      <c r="C50" t="s">
+        <v>456</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="J50" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="K50" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="L50" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5776,56 +6257,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="X50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="Y50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59125</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>4246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>466</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="J51" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="K51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="L51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5837,56 +6322,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="X51" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="Y51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59125</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>17077</v>
+      </c>
+      <c r="C52" t="s">
+        <v>474</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="J52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="K52" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="L52" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5906,50 +6395,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59125</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136587</v>
+      </c>
+      <c r="C53" t="s">
+        <v>481</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="J53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="K53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="L53" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5961,56 +6454,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="X53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="Y53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59125</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>490</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="J54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="K54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="L54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6026,56 +6523,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="X54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="Y54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59125</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>32532</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="J55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="K55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="L55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6091,56 +6592,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="X55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="Y55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59125</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136567</v>
+      </c>
+      <c r="C56" t="s">
+        <v>252</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="J56" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="K56" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6158,56 +6663,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="X56" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="Y56" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59125</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>91659</v>
+      </c>
+      <c r="C57" t="s">
+        <v>518</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="J57" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="K57" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="L57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6225,56 +6734,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="X57" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="Y57" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59125</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136588</v>
+      </c>
+      <c r="C58" t="s">
+        <v>526</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="J58" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="K58" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6292,56 +6805,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="X58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="Y58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59125</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>19814</v>
+      </c>
+      <c r="C59" t="s">
+        <v>535</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="J59" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="K59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="L59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6357,56 +6874,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="X59" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="Y59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59125</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>42084</v>
+      </c>
+      <c r="C60" t="s">
+        <v>543</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="L60" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6424,50 +6945,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59125</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>79747</v>
+      </c>
+      <c r="C61" t="s">
+        <v>550</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="J61" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="K61" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="L61" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6485,56 +7010,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="X61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="Y61" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59125</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136589</v>
+      </c>
+      <c r="C62" t="s">
+        <v>559</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="J62" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="K62" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="L62" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6554,50 +7083,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59125</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>136590</v>
+      </c>
+      <c r="C63" t="s">
+        <v>567</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="J63" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="K63" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="L63" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="O63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6615,56 +7148,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="X63" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="Y63" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59125</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>136591</v>
+      </c>
+      <c r="C64" t="s">
+        <v>576</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="J64" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="K64" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="L64" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6684,50 +7221,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59125</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>12412</v>
+      </c>
+      <c r="C65" t="s">
+        <v>582</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="J65" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="K65" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="L65" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -6747,50 +7288,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59125</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>6449</v>
+      </c>
+      <c r="C66" t="s">
+        <v>589</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="J66" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="K66" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="L66" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="O66" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6814,50 +7359,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59125</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>677</v>
+      </c>
+      <c r="C67" t="s">
+        <v>596</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="J67" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="K67" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="L67" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6881,50 +7430,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59125</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136592</v>
+      </c>
+      <c r="C68" t="s">
+        <v>601</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="J68" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="K68" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="L68" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="O68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6948,50 +7501,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59125</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>17624</v>
+      </c>
+      <c r="C69" t="s">
+        <v>608</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="J69" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="K69" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="L69" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="O69" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7015,50 +7572,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59125</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>9148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>616</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="J70" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="K70" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="L70" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="O70" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7082,50 +7643,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59125</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>95902</v>
+      </c>
+      <c r="C71" t="s">
+        <v>623</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="J71" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="K71" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="L71" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="O71" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7149,50 +7714,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59125</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>28095</v>
+      </c>
+      <c r="C72" t="s">
+        <v>630</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="J72" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="K72" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="L72" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="O72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7216,50 +7785,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59125</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136593</v>
+      </c>
+      <c r="C73" t="s">
+        <v>637</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="J73" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="K73" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="L73" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7283,41 +7856,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59125</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136594</v>
+      </c>
+      <c r="C74" t="s">
+        <v>644</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="J74" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="K74" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="L74" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -7346,50 +7923,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59125</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136595</v>
+      </c>
+      <c r="C75" t="s">
+        <v>649</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="J75" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="K75" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="L75" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="O75" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7413,41 +7994,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59125</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>136596</v>
+      </c>
+      <c r="C76" t="s">
+        <v>656</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="J76" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="K76" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="L76" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
@@ -7476,41 +8061,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>59125</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136597</v>
+      </c>
+      <c r="C77" t="s">
+        <v>662</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="J77" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="K77" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="L77" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
@@ -7539,50 +8128,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>59125</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>22496</v>
+      </c>
+      <c r="C78" t="s">
+        <v>668</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="J78" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="K78" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="L78" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="O78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7606,50 +8199,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>59125</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>65148</v>
+      </c>
+      <c r="C79" t="s">
+        <v>675</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="J79" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="K79" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="L79" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="O79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7673,41 +8270,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>59125</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C80" t="s">
+        <v>683</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="J80" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="K80" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="L80" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -7736,50 +8337,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>59125</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>111171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>689</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="J81" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="K81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="L81" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="O81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7803,50 +8408,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>59125</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>30701</v>
+      </c>
+      <c r="C82" t="s">
+        <v>696</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="J82" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="K82" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="L82" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7870,50 +8479,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>59125</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>136598</v>
+      </c>
+      <c r="C83" t="s">
+        <v>704</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="J83" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="K83" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="L83" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="O83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7937,50 +8550,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>59125</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>136599</v>
+      </c>
+      <c r="C84" t="s">
+        <v>712</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="J84" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="K84" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="L84" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="O84" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8004,41 +8621,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>59125</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>136600</v>
+      </c>
+      <c r="C85" t="s">
+        <v>720</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>638</v>
+        <v>721</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="J85" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
       <c r="K85" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="L85" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8067,50 +8688,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>59125</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>136601</v>
+      </c>
+      <c r="C86" t="s">
+        <v>726</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>643</v>
+        <v>727</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>644</v>
+        <v>728</v>
       </c>
       <c r="J86" t="s">
-        <v>645</v>
+        <v>729</v>
       </c>
       <c r="K86" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="L86" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="O86" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8134,50 +8759,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>59125</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>136602</v>
+      </c>
+      <c r="C87" t="s">
+        <v>733</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>649</v>
+        <v>734</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>650</v>
+        <v>735</v>
       </c>
       <c r="J87" t="s">
-        <v>651</v>
+        <v>736</v>
       </c>
       <c r="K87" t="s">
-        <v>652</v>
+        <v>737</v>
       </c>
       <c r="L87" t="s">
-        <v>653</v>
+        <v>738</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="O87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8201,41 +8830,45 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>653</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>59125</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>136603</v>
+      </c>
+      <c r="C88" t="s">
+        <v>739</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="J88" t="s">
-        <v>656</v>
+        <v>742</v>
       </c>
       <c r="K88" t="s">
-        <v>657</v>
+        <v>743</v>
       </c>
       <c r="L88" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8264,50 +8897,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>59125</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>136604</v>
+      </c>
+      <c r="C89" t="s">
+        <v>745</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
+        <v>747</v>
       </c>
       <c r="J89" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
       <c r="K89" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="L89" t="s">
-        <v>663</v>
+        <v>750</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="O89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8331,50 +8968,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>663</v>
+        <v>750</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>59125</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>136605</v>
+      </c>
+      <c r="C90" t="s">
+        <v>752</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>666</v>
+        <v>754</v>
       </c>
       <c r="J90" t="s">
-        <v>667</v>
+        <v>755</v>
       </c>
       <c r="K90" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
       <c r="L90" t="s">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>670</v>
+        <v>758</v>
       </c>
       <c r="O90" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8398,41 +9039,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>671</v>
+        <v>759</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>59125</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>136606</v>
+      </c>
+      <c r="C91" t="s">
+        <v>760</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="J91" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="K91" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="L91" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
@@ -8461,50 +9106,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>59125</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>136607</v>
+      </c>
+      <c r="C92" t="s">
+        <v>766</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="J92" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
       <c r="K92" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="L92" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="O92" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8524,50 +9173,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>59125</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>136608</v>
+      </c>
+      <c r="C93" t="s">
+        <v>774</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>684</v>
+        <v>775</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>685</v>
+        <v>776</v>
       </c>
       <c r="J93" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="K93" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
       <c r="L93" t="s">
-        <v>688</v>
+        <v>779</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>689</v>
+        <v>780</v>
       </c>
       <c r="O93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8591,50 +9244,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>690</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>59125</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>715</v>
+      </c>
+      <c r="C94" t="s">
+        <v>782</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="J94" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="K94" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="L94" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="O94" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8658,50 +9315,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>59125</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>136609</v>
+      </c>
+      <c r="C95" t="s">
+        <v>789</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="J95" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="K95" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="L95" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>702</v>
+        <v>795</v>
       </c>
       <c r="O95" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8725,50 +9386,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>59125</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>136610</v>
+      </c>
+      <c r="C96" t="s">
+        <v>796</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="J96" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="K96" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="L96" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
       <c r="O96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8792,41 +9457,45 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>59125</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>136611</v>
+      </c>
+      <c r="C97" t="s">
+        <v>803</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>709</v>
+        <v>804</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>710</v>
+        <v>805</v>
       </c>
       <c r="J97" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="K97" t="s">
-        <v>712</v>
+        <v>807</v>
       </c>
       <c r="L97" t="s">
-        <v>713</v>
+        <v>808</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
@@ -8855,50 +9524,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>59125</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>136612</v>
+      </c>
+      <c r="C98" t="s">
+        <v>810</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>715</v>
+        <v>811</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>716</v>
+        <v>812</v>
       </c>
       <c r="J98" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="K98" t="s">
-        <v>718</v>
+        <v>814</v>
       </c>
       <c r="L98" t="s">
-        <v>719</v>
+        <v>815</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>720</v>
+        <v>816</v>
       </c>
       <c r="O98" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8922,7 +9595,7 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>721</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_238.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_238.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="743">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Hummer1973</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r596390122-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>56225</t>
+  </si>
+  <si>
+    <t>1468036</t>
+  </si>
+  <si>
+    <t>596390122</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Very happy customer’s Karen and Kim Williams</t>
+  </si>
+  <si>
+    <t>Thank you so much to all the staff!!  Everyone was so accommodating and greeted us so that we felt so welcomed and at home!  We enjoyed our stay here very very very much!!  It is so important to have great customer service and they gave us the best!! Here us one of the best!  Thank you thank you!! :)</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r593529523-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>593529523</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Disappointed to say the least!  100% NOT guaranteed!</t>
+  </si>
+  <si>
+    <t>Made a reservation here a month in advance for a three night stay and even confirmed it three days prior to arrival...  then to be told the room I booked and confirmed is no longer available because the extended stay guests have decided to extend their stay even longer!They put us in a king bed with a sofa sleeper instead.  Well after one night and three hours of horrible sleep and now with back pain from the sofa bed we checked out this morning.  I am currently on hold with the Marriott reservation line in order to complain about their 100% guarantee policy which they advertise everywhere but do not honor.  I asked the front desk if they could find another hotel nearby with two doubles since they were full.  Emily at the front desk told me nothing is available but online there are plenty of rooms open.  This doesn’t add up...  which is why I have called the Marriott 1-800 number.“An associate will be with you momentarily...  “...well, it has been 30 minutes on hold now and counting which is why I am using my time wisely to write this review so others can be warned.  I wonder if there is a record for how long someone stays on hold for....MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Amber H, Front Office Manager at Fairfield Inn &amp; Suites Dallas Mansfield, responded to this reviewResponded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Made a reservation here a month in advance for a three night stay and even confirmed it three days prior to arrival...  then to be told the room I booked and confirmed is no longer available because the extended stay guests have decided to extend their stay even longer!They put us in a king bed with a sofa sleeper instead.  Well after one night and three hours of horrible sleep and now with back pain from the sofa bed we checked out this morning.  I am currently on hold with the Marriott reservation line in order to complain about their 100% guarantee policy which they advertise everywhere but do not honor.  I asked the front desk if they could find another hotel nearby with two doubles since they were full.  Emily at the front desk told me nothing is available but online there are plenty of rooms open.  This doesn’t add up...  which is why I have called the Marriott 1-800 number.“An associate will be with you momentarily...  “...well, it has been 30 minutes on hold now and counting which is why I am using my time wisely to write this review so others can be warned.  I wonder if there is a record for how long someone stays on hold for....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r573590434-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
-    <t>56225</t>
-  </si>
-  <si>
-    <t>1468036</t>
-  </si>
-  <si>
     <t>573590434</t>
   </si>
   <si>
@@ -189,9 +234,6 @@
     <t>That green carpet is a little hard to look at. And it carries into your hotel room. I did notice the wallpaper coming off the wall in the bathroom and added a picture for reference. Breakfast was good!! Room was quiet.More</t>
   </si>
   <si>
-    <t>SwimSoccerMom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r564069174-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -210,9 +252,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Amber H, Front Office Manager at Fairfield Inn &amp; Suites Dallas Mansfield, responded to this reviewResponded March 7, 2018</t>
   </si>
   <si>
@@ -222,9 +261,6 @@
     <t>In town for a sporting event for one night.  Long drive from Houston but room as promised on arrival.  Front Desk staff very friendly and helpful.  The hotel is older and the large room is nice but a bit sparse, needs more furniture.  Breakfast was nice and very unexpected touch of fresh flowers on the tables.  Overall a pleasant stay.More</t>
   </si>
   <si>
-    <t>pambusby8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r563618790-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -243,9 +279,6 @@
     <t>The room and hotel itself was clean and nice with friendly staff. HOWEVER, I booked my room weeks in advance and had my confirmation number ready-that should have meant that I would have a room waiting for me. However, I received a phone call from the hotel the day I was due to check in asking if I still planned to stay with them. I told them YES, but it would be a later check in. PROBLEM:  When I arrived, there were no rooms available!!!! They basically said they were so sorry, but it happens!!! So, on that cold, rainy night, after a full day in a gym for a tournament, we had to drive another 15 minutes to go to the hotel that they sent us to. That hotel didn't have the complimentary breakfast we had been expecting, nor a microwave in the room, nor the abundance of restaurants that surrounded the hotel we were expecting. You wonder how I know about the condition of the room? I had booked it for 2 nights---they were full the first night but had room for me on the 2nd. Great disappointment to learn that a reservation held with a credit card and secured with a confirmation number is meaningless at the Fairfield Inn in Mansfield!!!!!More</t>
   </si>
   <si>
-    <t>Joseph R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r551238156-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -276,9 +309,6 @@
     <t>Normal Fairfield Inn. Reception area is nice and clean staff well trained. Room seamed to be dated and it shouldn't be. If I remember hotel only open for a few years at best. Recommend a high floor as parking lot is right there.More</t>
   </si>
   <si>
-    <t>wsr429</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r534623337-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -306,9 +336,6 @@
     <t>My even-numbered room faced the busy US-287 highway. Unfortunately, the windows don't appear to be double-pained and were not able to sufficiently muffle the traffic noise even into the late night. Be sure to request an odd-numbered room which faces away from the road (which is undergoing a construction project).Otherwise my Fairfield experience was a positive one. The staff are friendly and are happy to accommodate your needs. The free breakfast was wonderful (M-F, 6AM-9:30AM, S-S, 7AM-10AM); Jimmy does a great job of organizing it! If you have time, you can enjoy the indoor pool and spa. My bed had a soft mattress which may or may not be to your liking.Overall, I would stay there again - in an odd-numbered room!More</t>
   </si>
   <si>
-    <t>Anne K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r532092411-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -324,9 +351,6 @@
     <t>Online website would not let me cancel, kept giving me an error message. I was violently sick with the stomach flu and couldn't talk on a phone. Wasted $146. Got an email the next day asking me to "rate my stay", sounds like someone checked me in even though I wasn't able to make it. Now I can't get a refund. Stay far away.</t>
   </si>
   <si>
-    <t>Beth B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r528029586-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -354,9 +378,6 @@
     <t>The reviews were good, my experience... not so great.The good:     Well located     Easy to find      CleanThe bad:     Beds are like sleeping on concrete       slabs; you toss &amp; turn all night     Noisy A/C     Noisy refrigerator      Very tiny TV with remote that only works      within 3 feet of the TV     Cheap scratchy sheets     Cracked bathroom sink     Decor out of someone's frenetic      nightmare Here's the funny part:  As a Marriott  member, I had already checked in remotely. My wait to get my "key" was exceedingly long while the attendant assisted someone making reservations via phone.  When my turn came, the attendant thanked me kindly for being a Marriott member and indicated they had a special chocolate thank you for me; would I like a Kit Kat bar or a Snickers!  Neither cheap candy bar seemed like a treat to me.  I settled on the Snickers as she offered no alternative despite my query.  She handed me a bite sized Snickers!  My response:  Are you kidding; this is an insult!  I will not be returning.More</t>
   </si>
   <si>
-    <t>Elise18</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r526904053-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -381,9 +402,6 @@
     <t>Customer services was most excellent. We even had a hand written note from the housekeeper! We had a 1st floor room, which is always nice. The ceilings were high. The room was clean and felt very spacious. Breakfast had sausage, turkey sausage, scrambled eggs, cheese omelettes, and the typical fruits, yogurts, breads, along with an oatmeal bar. Microwave and fridge in room. It was a great stay, and if we come to the area again, we will be back.More</t>
   </si>
   <si>
-    <t>Gary B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r512349103-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -403,9 +421,6 @@
   </si>
   <si>
     <t>We stayed at the Fairfield Inn &amp; Suites in Mansfield 08/09 through 08/12/17 to attend a volleyball tournament.  The property is well maintained and clean.  Our room was pretty small compared to other hotel chains I use regularly.  The staff at this location was great.  The managers were friendly. Rick, the maintenance man, is great. He had a kind &amp; encouraging word to say to everyone.  I had the opportunity to over hear one of the managers handle a difficult situation with another customer.  She did a great job listening and responding to the concerns.  The fitness center is small but functional.  They have an indoor pool.  Breakfast was very good.  Our room was on the 2nd level and overlooked Highway 287.  Even though this was fairly close to the highway, the room was very quiet.  There were 3-4 high school volleyball teams staying at this location and there was little noise that could be heard from the teams.  I would definitely consider staying here again, primarily due to the friendliness of the staff.More</t>
-  </si>
-  <si>
-    <t>GwinnettGuy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r508944293-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -429,9 +444,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Tiffany R, Manager at Fairfield Inn &amp; Suites Dallas Mansfield, responded to this reviewResponded August 6, 2017</t>
   </si>
   <si>
@@ -444,9 +456,6 @@
 Breakfast in the morning was good, nice selection.  On the way out to our car in the morning we noticed 2 cones blocking 2 spaces right in front of our room the night before were still there.   They had not been moved by the time...Catching up on reviews, stayed in mid December 2016Relocated to this hotel for a 3 night stay after issues at another Fairfield across town.  Checked in later in the evening, 8pm or so.  Desk attendant was nice, didn’t get his name, older guy.  I had read a few reviews about the beds being uncomfortable before we got there and inquired if he was aware of that issue.  He was not but said they had been doing some remodeling so new beds may have been part of it.      When we got to the room it was very warm and we attempted to open the window to cool it off but we could only open the window a few inches on our first floor room.  There was a piece of hardware placed on the track to prevent it from opening further.  Obviously not intended to be used as a fire escape.  Enjoyed the pool and hot tub before going to bed.   The previous reviews about the beds were correct, not very comfortable.  First time I’ve stayed at a Marriot brand property and not had a comfortable bed.   Brand of the mattress was Simmons Beautyrest Hospitality collection.    Breakfast in the morning was good, nice selection.  On the way out to our car in the morning we noticed 2 cones blocking 2 spaces right in front of our room the night before were still there.   They had not been moved by the time we got back in the evening either.  When we asked about them the desk attendant was unaware of why they were there.  They were there for our entire stay, 3 separate desk attendants and a manager during the day had no idea why.  There were only 8 spaces on that side of the building and there was nothing visibly wrong with either of the cone blocked spaces.   Other than the beds we enjoyed our stay.  One thing to keep in mind if you are handicapped.   The handicapped parking is on the end of the building next to the side door.  The side door is not automatic, nor does it have a push button door opener, so you will have to wheel yourself down the sidewalk to the front of the building if you need access through an automatic door.More</t>
   </si>
   <si>
-    <t>Scott_Shield</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r485977529-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -474,9 +483,6 @@
     <t>I stayed here earler this week. Let me tell you the Customer Service at this hotel is really good. Forgive me, I do not remember the name of the  gentleman that checked us in, but he was super friendly and helpful. When he found out that we were staying at hotel so kids could go swimming, he put us next to the pool.I wanted to give this hotel a shout out for doing such a good job.The next day we stayed at another Marriott property ( Residence Inn Highlander Blvd) and the customer service at that hotel was terrible. Thank goodness at least  Fairfield Inn did a good job.More</t>
   </si>
   <si>
-    <t>Tony9876</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r482795669-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -507,9 +513,6 @@
     <t>I got a better than average rate on a weeknight and found a clean, fairly new hotel. One issue: the GPS info in my iPad map had them a few miles farther south on US 287 than they are.  And now, when I put that address in on a Google Maps search, the street view that comes up also shows a location that's rural, along the highway.  Not sure what's up with that. I had a room on the highway side of the hotel, and even though they are a pretty good distance back from the highway, the road noise level was pretty high. Seems they should have built it perpendicular to the highway.  So ask for a room on the back side. Comfortable bed and a clean room; didn't get a chance to try the breakfast. Recommended hotel choice.More</t>
   </si>
   <si>
-    <t>Lisa R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r478356744-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -534,9 +537,6 @@
     <t>Great hotel for groups. Came with 2 sports teams and families. Clean hotel, beds comfortable, friendly staff. Includes breakfast which had something for everyone. We love the coffee/tea and workout facility 24 hours. Nice sitting area for big groups to socialize. More</t>
   </si>
   <si>
-    <t>rtcrawford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r475664312-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -555,9 +555,6 @@
     <t>Reserved handicap room, for 4 a night stay, was given to someone else because they wanted to give us an upgraded handicap room.  Shower had a 6 inch high step over and no seat.  Nearly fell twice in the shower because the shower bars are too slick to hold on to because of the design. No bars around the toilet.  In addition the hot water in the shower would change to ice cold water while taking a shower.  Management said they were going to get the party in the Handicap room to move to another room and move us into that room the next day.  Repacked our luggage and went to the front desk to switch rooms the next day and were told the room was not going to be available.  Had to go back to the room we had been in and unpack our luggage again.  On our 3rd day we were told again they found us a handicap room and we could move that afternoon.  At that point chose not to move as we didn't trust the statement that a room was truly available and we did not want to have to pack and repack our luggage again.  We have reason to stay at a hotel in Mansfield several times a year  but will NEVER stay at this Fairfield again.More</t>
   </si>
   <si>
-    <t>sonospia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r466338727-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>The hotel was very clean (just finished a full cleaning of carpets throughout the hotel), the staff were very helpful and polite, and the room was very clean, orderly, and I slept very well.  The morning breakfast was well appointed and clean.  I did use the laundry facilities and found them a bit older and tired.  They worked well, but were old.  The location is on the access road off the highway, very accessible.  Overall this is a good hotel the is worth the money.More</t>
   </si>
   <si>
-    <t>104lff</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r464310808-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -612,9 +606,6 @@
     <t>This was one of the few hotels that had occupancy available on the two consecutive nights that we needed.  Never having stayed in Fairfield Inn and Suites before, we were reluctant but needed the two nights in the same hotel so we decided to take it.  Much to our surprise, the rooms were exceptionally clean and fresh looking with the bright carpet and drapery. The staff did let us check in an hour early without a problem.  Only one problem that we encountered and it was the thin walls; we could hear adults talking and babies crying in the next room.  Breakfast was very good and the breakfast area was well attended by the staff, keeping everything fresh and full.  We would stay in Fairfield again without a problem.More</t>
   </si>
   <si>
-    <t>Blaine C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r443526423-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -639,9 +630,6 @@
     <t>We stayed one night in early December after an evening wedding. Room was clean and quiet. Bed was average - not great if you are a back sleeper. Carpet looked fairly new but was striking and rather outlandish - not sure what they were going for with the look. We stayed in a suite which was not spacious but had ample room. I immediately commented that I'm glad we didn't downgrade to a standard room (my son was supposed to come but plans changed so it was just my wife and I.)Everything is about what you get in any room at this price. Continental breakfast was better than HI Express. There is an exhaust fan in the bathroom, which is a great feature and sadly missing in many hotels. Bottom line: I would stay here again for a convenient low cost hotel. It's not a charming B &amp; B. It's clean, with a good breakfast. And did I mention the exhaust fan?More</t>
   </si>
   <si>
-    <t>mtbkb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r440478016-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -669,9 +657,6 @@
     <t>Front desk staff super friendly and very courteous. Allowed me to check in 2 hours early because they had my room cleaned and available. Room was clean and bed very comfortable. The standard room is a bit small, but I was there for less than 24 hours so this was not a big deal to me. There were no washcloths in the bathroom. Water pressure and hot water was great.More</t>
   </si>
   <si>
-    <t>Joey P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r438183891-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -696,9 +681,6 @@
     <t>My three night stay was excellent from the moment I walked into the hotel. Although I checked in via app on my phone, the front desk employee was gracious to change my room as I needed a quieter room not facing the highway. She did so pleasantly with courtesy and friendliness.The room was large and I genuinely appreciate the step in shower. Generally I stay at this hotel every year about the same time for business purposes. The hotel was not overly noisy and it allowed me to get my work done in the evenings, the breakfast buffet was ample and the staff accommodating.As a Lifetime Platinum Elite, I appreciate the Marriott facilities where the staff are attentive and exceed expectations and this Fairfield Inn certainly does!  Thank you.More</t>
   </si>
   <si>
-    <t>LynW922</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r434154543-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -721,9 +703,6 @@
   </si>
   <si>
     <t>From the time I walked through the door till the time I left two days later, the staff at this hotel was outstanding.  Their friendliness, courtesy and over-the-top service were very impressive. The facility itself was clean and welcoming. The breakfast buffet which is included in the price, was as good as I've seen at even pricier hotels. My room was on the freeway side and I could hear the traffic, but it wasn't so bad that it kept me awake.  Bathroom was a good size and step-in shower was very nice.  I'll say again, the staff went over and above in a couple of instances and everyone from the desk clerk to the maid were very friendly and efficient.  I would not hesitate to stay there again.More</t>
-  </si>
-  <si>
-    <t>BraTravel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r431188964-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -755,9 +734,6 @@
 Breakfast is decent with the same offerings everyday: scrambled eggs, sausage patties occasionally the addition of bacon, wheat tortillas, salsa, grated cheese, boiled eggs, oatmeal, 2 waffle makers (one Texas-shaped - may FAVE!), various dry cereal, various yogurt, variety of muffins and bread, a good variety of fresh fruit (whole and chopped), various juices. The coffee is good and hot with a wide variety of condiments. I like that I can take my breakfast back to my room to eat. I'm not a morning person and the one morning I tried eating in the dining room, a young lady was talking very loudly on her phone the entire time. The attendant is a bit of a curmudgeon but I think he could be nice in a different setting. His has...Your average hotel stay... I was a bit disappointed to find out there was no kitchen as this was an extended stay. The room is a bit small but adequate. Bed is comfortable as are linens and pillows. It's the noisiest room I've stayed in in a while... guests stomping overhead, noisy guests in the hallway, slamming doors, rattling walls, some mystery knocking noise in the bathroom and what sounds like a power surge every time the AC next door comes on. We even experienced a quick power outage that knocked out the TV satellite which eventually came back minus CBS (a DirecTV repairman is supposed to be here today). Breakfast is decent with the same offerings everyday: scrambled eggs, sausage patties occasionally the addition of bacon, wheat tortillas, salsa, grated cheese, boiled eggs, oatmeal, 2 waffle makers (one Texas-shaped - may FAVE!), various dry cereal, various yogurt, variety of muffins and bread, a good variety of fresh fruit (whole and chopped), various juices. The coffee is good and hot with a wide variety of condiments. I like that I can take my breakfast back to my room to eat. I'm not a morning person and the one morning I tried eating in the dining room, a young lady was talking very loudly on her phone the entire time. The attendant is a bit of a curmudgeon but I think he could be nice in a different setting. His has got to be a thankless job. The lady that cleans the tables is very friendly and nice.I appreciate that the AC worked well, decent shower pressure and friendly cleaning and maintenance staff. Front desk clerk went out of her way to get my husband and me a couple of plastic spoons.Fairly convenient location with shopping and restaurants close by but a little awkward to get to, requiring a big circle of driving but easy to get back to the hotel.More</t>
   </si>
   <si>
-    <t>Delaterian F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r431064310-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -782,9 +758,6 @@
     <t>Me and family just went for a getaway. The only negative I have to say is that the beds were not as comfortable as I thought they would be. Other than that the staff was friendly and the hotel itself was pretty nice and clean.More</t>
   </si>
   <si>
-    <t>maggie5arkansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r431050962-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -800,9 +773,6 @@
     <t>This is a great place to stay.  Clean rooms.  Paul Mitchell bath products.  Breakfast is great and included.  Scrambled eggs, sausage (one morning both pork and turkey available), boiled eggs, shredded cheese, salsa, muffins, cereals, juices, coffee, yogurt, waffle machine, milk, fresh cut up fruit as well as bananas and apples.  Check in and out was quick and friendly.  Indoor pool and hot tub.  Only complaint is the chemicals in the pool are so strong.  They burned my eyes and I never even got in the pool, just stayed in the room watching family swim.  Condensation was always dripping off the windows.  I propped open the outside door to help with ventilation.  Another guest had to keep walking outside for fresh air.  Fix this problem and the place would be perfect.  Was a little loud our second night.  Sounded like a basketball team playing on the floor above us.  All night.  Guess they were having a good time. haha!  All employees we encountered were very friendly.More</t>
   </si>
   <si>
-    <t>Jim B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r425625256-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -824,9 +794,6 @@
     <t>The hotel is actually very nice and has some food nearby.  The check in man was great.  The breakfast was very good.  It had tortillas for breakfast tacos.  It's a good location for me.  The shower is in the bath tub and the tub does not have any non slip help in it.  When I slipped and fell I hit my head, elbow, knee and hip badly enough that I had to walk with a limp for 3 days.  I had to cancel two rounds of golf because the twisting hurt my knee too badly.  I reported the incident to the front desk girl who said she would inform management.  No accident report was filed and very little to no concern on the hotel's part has been shown.  I did get an email a few days later, after complaining to the Marriott corporate office.  Thanks for your concern.  I didn't go to the doctor because I knew I'd be OK in a few days and didn't want to run up any expenses.  But the horrible lack of response nor caring on this hotel's part compels me to give you some advise.  If you ever get hurt at this hotel, go to the doctor right away.  Call your lawyer and let them handle the situation directly with the hotel or their lawyers.  Maybe they'll respond to them.  Don't try to be nice with this group.More</t>
   </si>
   <si>
-    <t>Chris H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r423168792-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -851,9 +818,6 @@
     <t>This could be a great property in the DFW suburbs, but the mattress' are the worst of any hotel that I have stayed at. The property is exceptionally clean, the rooms are fairly updated and the free breakfast is among the best, however the mattress is exceptionally hard and leaves a lot to be desired. More</t>
   </si>
   <si>
-    <t>kimberlyelder</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r413282509-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -881,9 +845,6 @@
     <t>We were met with beyond excellent customer service, cheerful and helpful staff, clean and quiet rooms, and a beautiful facility. I had a large group staying for a business convention and Manolo at the front desk was incredibly helpful to me. He made check in effortless and quick. Because of the excellent service and beautiful facility, I plan to book our group's rooms at this hotel from now on! It is about a 20 minutes drive to our meeting location, but the drive is NOTHING because of the awesome experience we had at this hotel. We will definitely be back!!!More</t>
   </si>
   <si>
-    <t>Dallashooter</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r395513383-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -899,16 +860,31 @@
     <t>This hotel is much quieter than those in the city - and it has a country feel from where it is located.  The wind blows like you are on the prairie.  Staff are excellent - rooms are quiet and clean.  Breakfast was better than most for a free meal.  A lot of variety</t>
   </si>
   <si>
-    <t>moviefan3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r389179141-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
     <t>389179141</t>
   </si>
   <si>
-    <t>143linda33701</t>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Good but room to be great</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield for 4 nights while our daughter had a dance competition.  It was quiet and comfortable.  It could have used a little more updating of the decor but it was clean.  We got the special rate for the room 2 queens for $119 because the dance competition (the rate was higher than normal due to the activity in the area) and got our Marriott points. It would have been nice if the wall to the outside opened to the pool so the parents could sit outside while watching kids in the pool. On the first night some of the parents left teens to watch younger kids with blow up pool floats that took up most of the pool hitting our kids every time they moved very far. The breakfast was good and kept us eating something filling and different most days. They need to invest in better towels.  The towels in the room were comparable to Motel 6 or Super 8 level not Marriott.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stasi W, General Manager at Fairfield Inn &amp; Suites Dallas Mansfield, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield for 4 nights while our daughter had a dance competition.  It was quiet and comfortable.  It could have used a little more updating of the decor but it was clean.  We got the special rate for the room 2 queens for $119 because the dance competition (the rate was higher than normal due to the activity in the area) and got our Marriott points. It would have been nice if the wall to the outside opened to the pool so the parents could sit outside while watching kids in the pool. On the first night some of the parents left teens to watch younger kids with blow up pool floats that took up most of the pool hitting our kids every time they moved very far. The breakfast was good and kept us eating something filling and different most days. They need to invest in better towels.  The towels in the room were comparable to Motel 6 or Super 8 level not Marriott.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r379382865-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -930,9 +906,6 @@
   </si>
   <si>
     <t>I've traveled all over the world visiting many hotels and for the price, the quality is outstanding.  I enjoyed great breakfasts with the hot coffee ready between 5-5:30 AM even though breakfast doesn't begin until 6.  They serve both hot and cold items with a really good variety from hot oatmeal to eggs, sausage and bacon to several varieties of breads.  Though I didn't try them, the Texas shaped waffle where a hit with the kids.I can't say enough good things about the staff.  When you have an extended stay, they become part of your family and when it's a good experience that happens, it lowers the tensions of stressful business situations as soon as you arrive back to the room. Thank you to those who were so kind and went out of their way to please me in every way.I look forward to returning to clean, spacious room, great food and a fabulous staff that makes you feel so welcome!Linda - Los AngelesMore</t>
-  </si>
-  <si>
-    <t>Akj05002</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r379166609-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -962,9 +935,6 @@
 Now we get to the issue that I can't seem to shake. Their wireless internet was throttled at...and I am not making this up...256kb/s. That's right...not 100mb,...I was in town for business recently and completely forgot to book a hotel for my week long stay. Luckily this place was available, fairly cheap for the quality listed, and was in a decent proximity to where I was working. The property itself is incredibly clean, in a great location, and had all the amenities that you would usually need. I didn't get into the pool or fitness area but they both looked well stocked and very clean. The person that checked me in (I really wish I could remember his name since he was AMAZING!) was one of the most polite and friendly persons I have ever dealt with in my hotel stays and that is saying something as I travel a ton. I have been in 5 star hotels that pale in comparison to the attentiveness of...I really wish I had wrote the name down...He was the employee of the month the month of April and/or March if that helps anyone reading this from the hotel chain! The room was very spacious and clean and the air worked very well. The bed was comfortable and the bathroom had plenty of space and was immaculate. Everything about the room was as good as it could have been/their star rating would indicate. Now we get to the issue that I can't seem to shake. Their wireless internet was throttled at...and I am not making this up...256kb/s. That's right...not 100mb, not 50 or 20 or 10 or even 1mb/s...256kb. That is only ~5 times faster than DIAL UP! I know that they are attempting to sell their "premium" internet and make a profit but I find it almost offensive that they would restrict the internet so badly in an attempt to do so. It was nearly impossible to get any work done and entertainment was almost completely out of the question. I would actually stay at this hotel more often, even though it was slightly out of my way, if not for this one issue.The hotel was a 5/5 rating with the exception of the internet.More</t>
   </si>
   <si>
-    <t>Tracie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r371441407-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -989,9 +959,6 @@
     <t>My experience is ongoing.  I have stayed in other Mansfield hotels, only because the Fairfield was sold out!  The staff is fantastic, always helpful and courteous.  The breakfast is top rate.  The hotel is super clean and comfortable.  I always feel welcome and appreciated!  Stay Here!!!More</t>
   </si>
   <si>
-    <t>H L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r358064340-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1019,9 +986,6 @@
     <t>I selected this hotel for a one night stay being close to where I need to be and also close to shops and restaurants.Check in by Rochelle was friendly and fast. I was given a room on the 3rd floor, on the highway side to the north west. There were workers working on the roof on the other side of reception. They were moving to my side of the building next morning.I liked my room, it had 2 queen beds, but still very spacious and also had a microwave and fridge. The room was very clean. The bathroom and shower were excellent.I had a quiet night's rest and did hear someone on the roof for a couple of minutes in the morning. They stopped work as the wind was very strong.Breakfast at 7:30 was very good, there was a better range of hot food than some other hotels at this level.All the staff were very, very cheerful and friendly at this hotel. The reception and business desk area also looked comfortable, although I did not use the facility.However, I did decide to change hotel as there is still work on the roof.More</t>
   </si>
   <si>
-    <t>Gerry M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r351742557-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1049,9 +1013,6 @@
     <t>We recently stayed at this Fairfield location.  Property looks fresh and new.  We had a Queen Suite which was large, well decorated, and very comfortable.  All the things you would expect and almost always receive with Marriott!One of the best features though, with any property is the staff, and the way they treat guests.  Our first impression was with Chris at the front desk.  He was friendly, accommodating, and was very interested in getting us checked in quickly and comfortably.  We were traveling with our daughter who, just the week before, had had major surgery, and Chris was very focused on getting us into the best room possible, and making our stay a great one!We would recommend this Fairfield to everyone.More</t>
   </si>
   <si>
-    <t>Ezio264</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r350282136-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1079,9 +1040,6 @@
     <t>Nice and comfortable hotel,great staff, good location,early breakfast so you go work ready and fully charge.Coffee hot and ready all the timeIt is close to shops, restaurants,fast food not far from Fort Worth and Dallas, Very good *****More</t>
   </si>
   <si>
-    <t>KarenFromTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r340742812-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1100,9 +1058,6 @@
     <t>I stayed here 2 weekends in a row to attend business meetings in the area. I did not sleep well because thd mattresses are very hard (not firm, really really hard). The autoclosers in the room doors cause a LOT of noisy door slamming day and night. The room cleaning staff had loud group discussions in the hall and were very noisy from early until afternoon.To the positive side, the staff at the front desk is extremely pleasant and very helpful.  The large breakfast buffet was great! The regular rooms are offered at a good value.As for the location: there is no restaurant within walking distance. This place could use a good local diner next door where nothing currently exists. Mansfield is just full of chain restaurants, but most are on the oposite side of Highway 287, not convenient to the Fairfield.More</t>
   </si>
   <si>
-    <t>Chris R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r335699261-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1130,9 +1085,6 @@
     <t>Don't come here expecting to get any kind of breakfast buffet. It's not due to lack of variety. But you do have to have food on your buffet in order to eat. I went down about 9 o'clock and there was no breakfast meats or bagels. The coffee was out and  the lines were long waiting for more. I walked over to talk to the manager he seemed oblivious to the situation. His response to me was I'll get over there to help in a minute. I'm generally not a continental breakfast kind of guy but I cannot stand hotels that offer it then begrudge those who would partake of it. ￼ More</t>
   </si>
   <si>
-    <t>Jeanne H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r328011260-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1151,9 +1103,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>336tracyh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r326746585-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1175,9 +1124,6 @@
     <t>I reserved a king size room on a high floor, away from the elevator and highway as defined in my profile and on the request.  I received confirmation that the king size room was reserved with late check in guarantee.  I have stayed at this hotel many times so I know how noisy the highway side can be.  I received a courtesy call from the hotel midday of my arrival date as they wanted to confirm my plans were still to arrive and to see if I had any special requests.  I arrived at the hotel at 7:30 pm only to be told that my reserved room was not available and that the room was also on the front side of the highway.  I was given no explanation as to why the sudden change only "sorry for the inconvenience".  At this time it was late and options to find another hotel were few.  The parking lot did not appear full so it was also hard for me to believe their were no other room options available.  Seems being a loyal Marriott rewards traveler did not matter to them.More</t>
   </si>
   <si>
-    <t>Sondra G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r322767977-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1193,9 +1139,6 @@
     <t>The Fairfield was a good hotel, and about what I expected from the brand and price point.  Rooms were clean and comfortable, and wifi was easy to deal with.  The breakfast was good, with hot and fresh options.  The location isn't a walking distance to much of anything, but if you have a car, it's a short drive to an assortment of shopping and chain restaurants.My only complaint...  The bedside clock radio had a super-bright light.  I finally had to toss a towel over it so I could sleep.  One of my coworkers said she had the same problem.</t>
   </si>
   <si>
-    <t>Scott N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r316184004-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1211,9 +1154,6 @@
     <t>I've stayed at this hotel for close to 100 nights over the past 4 years and the people at the front desk have always been very nice.  The rooms are always clean and I've always enjoyed my stay there.  If only they had installed their shower doors correctly.</t>
   </si>
   <si>
-    <t>200nightsontheroad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r312441223-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1232,9 +1172,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>mesadaisy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r294364718-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1262,9 +1199,6 @@
     <t>I stayed at Marriott hotels worldwide but never a Fairfield Inn prior to Mansfield TX.  It was a most comfortable stay for our family. The staff was accommodating, the pool clean with plenty of towels, room was large enough for a comfortable night's sleep. I am looking forward to the breakfast just down the hallway as I am still lounging in the comfort of this bed.  Well done once again Marriott.More</t>
   </si>
   <si>
-    <t>Brenda J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r293857441-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1280,9 +1214,6 @@
     <t>This was  a clean hotel. The rooms were nice and comfortable!  The staff was very welcoming and helpful! Breakfast was good and plenty of choices to choose from! I recommend it if your in Mansfield. Internet available with printer.  Pool and workroom also at hotel! Both were clean and ready to use. Best part of the hotel was the friendly staff!!!</t>
   </si>
   <si>
-    <t>greenbulletblues</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r286927902-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1307,9 +1238,6 @@
     <t>The room was OK, but I was not impressed, I expected more.  The shower had what appeared to be mold, but I did not get down to see if it would come off.  The counter top in the bath was marked up badly by something another guest had spilled, perhaps nail polish remover, I thought it was bad enough that the hotel should have replaced it.  The breakfast was better than most if you're a sausage and eggs type person. Check in/ check out was good. General cleanliness of grounds was good. Staff was good.More</t>
   </si>
   <si>
-    <t>Angie R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r286098753-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1328,9 +1256,6 @@
     <t>We will definitely stay here again. It was very clean. The free breakfast was super, including hot sausage, scrambled eggs, boiled eggs, tortilla for breakfast tacos, waffle maker, fruit and cut up fruit, cereals, yogurts, etc. More</t>
   </si>
   <si>
-    <t>3392mary</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r275188207-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1352,9 +1277,6 @@
     <t>This hotel was average toliet running after flush noisey to interstate traffic had asked for room not on side of interstate was told problem had been taken care of with extra caulking around window seal still could hear traffic with all the rain they had in tx the hall way window was leaking of water they placed a towel around the window to keep water out which was an eye soar,  we stayed on second floor house keeping and staff was really nice rooms clean was not like the other marriott fairfield inn  that we stayed before this was more of average hotel but for the price it was nice and cleanMore</t>
   </si>
   <si>
-    <t>Travelingfamilia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r273133868-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1382,9 +1304,6 @@
     <t>We took our children here during spring break so they could swim indoors. We don't live very far from the hotel. I typically don't look to stay in Fairfield Inns because I thought they were the low end hotel of the Marriott brand. Boy, I was wrong! The front desk lady made it feel like we were a guest in her home. The rooms were very clean and breakfast was good too! While we were checking out my baby started crying and we were out of milk. The front desk lady went out of her way to help us get Apple juice from the breakfast bar although it was already closed! I was very impressed! Can't say enough about this hotel!More</t>
   </si>
   <si>
-    <t>MurrayH3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r267371069-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1400,9 +1319,6 @@
     <t>Breakfast is Middle of the road.   Instant Oatmeal.  Same Scrambled eggs, pork or turkey sausage links with quality bacon.   Make your own WafflesThe Cold cereal is boxed with 2% as the only real option though there was Non Fat by the gallon periodically.   Std Orange or Apple Juice..The Bananas was almost always brown though the Oranges and apples were first rate.The rooms were definitely above average.   Nice beds and pillows with Microwave and refrig in each room.</t>
   </si>
   <si>
-    <t>TravelingM-L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r263376043-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1430,9 +1346,6 @@
     <t>Put the address in your GPS and you get the wrong location.  Call the hotel and ask for directions and they don't know where they are.  The hotel is on the frontage road and the highway noise is LOUD and the standard rooms are small.  We spent the night here last night and listened to the cars and trucks on the freeway all night.  May be the rooms on the back side of the property are ok, but I would not stay here again in a room that fronted the freeway.More</t>
   </si>
   <si>
-    <t>Anna B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r261852280-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1454,9 +1367,6 @@
     <t>I stayed at this hotel in February.  I was there for a week and had the king size suite. It was very well kept and clean. The layout of the room was great especially for a an extended stay. The bed was comfortable and the breakfast was excellent. More</t>
   </si>
   <si>
-    <t>Dean M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r260465245-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1475,9 +1385,6 @@
     <t>We stayed here in mid-March.  We had a 2 queen bed suite.  Pros:  The staff, they were all very friendly.  Lexis was very helpful (best wishes on your up coming baby girl).  Do it yourself coffee bar (Coffee, tea and hot chocolate) available in lobby!!  The breakfast (besides the pool) it was the grandkids’ favorite thing.  Heated pool and spa!!!!  Location.  Rooms were quiet.  Hotel was very clean.  Exercise room had free weights.  Fruit available throughout the day!!!  Nice seating area with fireplace &amp; TV in lobby.  Newspapers available in AM!!!  Free WiFiCons:  The beds were ROCK hard, very uncomfortable.  The rooms had small odor, the only thing we could match it to was Chex-mix.   The door was very hard to hold open, the arm that closed the door was very strong.  There was very strong odor of chlorine!!!  The chlorine odor made it hard to use the exercise room (it was located right next to the pool).  Only 1 of the 2 treadmills was working.  The exercise room was very small.  The key card kept failing.  I know I listed more cons then pros, but we enjoyed our stay and would return without hesitation.  Would recommendMore</t>
   </si>
   <si>
-    <t>Razinski</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r255131619-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1502,9 +1409,6 @@
     <t>This hotel is just a little worn around the edges. Bathroom had mould and was only superficially clean. Room was fine, although a little dated with "fixed" carpet. Breakfast was not bad, but serving food on styrofoam plates, with plastic cutlery and paper cups for coffee is not doing this hotel any good. It makes it all taste cheap and nasty. More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r254772162-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1529,9 +1433,6 @@
     <t>We made this reservation while on the road during a long car trip. We ended up getting a flat tire around 11pm and ended up having to stay in another town. The hotel did not refund our money since it wasn't a 24 hours notice. Well, pretty stupid since the reservation was made only 4 hours before the planned reservation, how could a 24 hr notice ever be given?? Pretty lousy I think! Nice way to make a buck. Take a short notice reservation but require an impossible 24hr cancellation policy. More</t>
   </si>
   <si>
-    <t>Tim W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r242568472-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1584,9 +1485,6 @@
   </si>
   <si>
     <t>We stayed one night here.  Check-in was smooth and professional.  Hotel was clean.  Our room was clean and nice.  Bed was comfy!  Indoor pool and hot tub was nice, although chemicals were very heavy in the air.  Breakfast was great with a large selection including, scrambled, boiled and fried eggs, sausage, Texas shaped waffles, bagels, dry cereals, milk, juice and fresh fruit!  We will be coming back!More</t>
-  </si>
-  <si>
-    <t>Rich N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r236194944-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1632,9 +1530,6 @@
 The pool and exercise room were...I needed a retreat to getaway, work, and have some alone time to focus on my business.I chose the Fairfield in Mansfield, TX.I had quite a bit of work to do, so I brought my big ole desktop computer. It had all of my files and would have been a pain to transfer it all to my laptop. So, I hauled it in and set it up.The lobby and lounge were very clean. It is a fairly new hotel and was well kept on the inside and outside.The staff was very friendly and helpful. I got checked in and got things set up... almost.I realized in my haste to pack that I left my mouse and keyboard at home... ugh!  (maybe I should have brought my laptop).I went down to the lobby to get a soda. I was going to go across the highway to Target and buy a new one. I told the woman at the front desk what I did. She went back and told her manager. The manager came out with a keyboard and mouse for me to use for the 3 days I was going to be there!! That... that right there is going beyond the average!It was such a huge relief. I went to work.Other Things:Breakfast was fantastic. I enjoyed their breakfast very much. The breakfast crew was very helpful.The pool and exercise room were nice. Enjoyed swimming some laps and relaxing in the hot tub.I would recommend this hotel for a weekend getaway, a business retreat, a short holiday, a very inexpensive way to use your Marriott points (one of the cheapest in the area), etc.I could not find anything wrong... it was all good.If you had to choose between the Fairfield and the Holiday Inn Express down the road... choose the Fairfield.More</t>
   </si>
   <si>
-    <t>KingDuVast</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r227274561-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1659,9 +1554,6 @@
     <t>I travel two/three times per year in US from Italy and this time I've stopped in this hotel for some days. I usually stay in this kind of hotel - let's say medium level - like Holiday inn, West Bestern and son on. This was first time i've been in this hotel chain. The room is not so big as in other places I mention, but quality was a little bit better (bigger bathroom, large shower, better overall materials). Marriot's touch is here. Breakfast have more choices than the competitors in the same area (at least for what I've tried).On the other side, A/C (as always) is noisy and with poor controls.A little bit more expensive than other, but the small difference worth the choice.Better if you can book a room not facing the highway, with A/C off the traffic on the HW can be disturbing. Recommended for short-middle term stays.More</t>
   </si>
   <si>
-    <t>Stephen C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r221414892-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1683,9 +1575,6 @@
     <t>There aren't a lot of options around Mansfield but the accomodations and service are great here.The rooms and hotel seem like new and are very luxurious especially for the price.  The Front Desk staff are very friendly and helpful.  All around a very good dal.More</t>
   </si>
   <si>
-    <t>goodtravel T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r220860498-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1704,9 +1593,6 @@
     <t>We were going to spend a night or two in Mansfield while helping our daughter and her husband move into their new home.  We reserved one night (Sunday $121 per night) and then the next morning requested another night or two...the employee at the front desk gave me a higher rate for Monday and Tuesday, but she said if I reserved the room on line the rate would be lower. (She said there was availability.)  I check on line but the rate was still higher than $121.  We are Marriott Silver Elite rewards members (whatever that means and AAA), so I check with the Hampton Inn &amp; Suites (Hilton) which is next to the Fairfield.  Their rate was $99.75 per night!  So we checked out of the Marriott and into the Hilton for another three nights.  I can compare these hotels which are very similar in vintage.  The Marriott's carpet was hideous...this didn't bother my husband, but  the carpet in our room reminded me on a casino's busy and gaudy floor covering.  Anyway, the bed was okay and the breakfast was okay...but if you're staying in the area check out the Hampton Suites too...better and cheaper (and our room was larger)!!More</t>
   </si>
   <si>
-    <t>Bryan K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r219041897-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1729,9 +1615,6 @@
   </si>
   <si>
     <t>Place was so nice I had to write a quick review even before I checked out. Had to spend 3 nights at the Fairfield in Mansfield, Texas. Very lean hotel with a very pleasant and helpful staff. By the way they have a hot breakfast in the morning that's pretty tasty. The hotel has easy highway access and, its close to the areas attractions. So it looks like the discount chains are upping their game. Great place to stay folks!!!More</t>
-  </si>
-  <si>
-    <t>deezigner</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r217119797-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1759,9 +1642,6 @@
 The breakfast...My two sons &amp; I stayed here for my nephews wedding and loved it!  We arrived at 3pm and the girl at the front desk was having trouble with her computer but got it going fairly fast.  We heard to ask for the top floor but that was already full.  The 2nd floor was where most our family members stayed and we had a room at the back, so we heard no highway noise.  The front desk was very nice when we told them one of keys didn't work and we had misplaced another.  They replaced them quickly with no problem.The king suite was perfect for the three of us and our room ended up being a nice gathering place for other family members as well.  The rooms are clean with a nice bed &amp; plenty of good pillows (some soft, some hard).  The housekeeping staff was very quick to bring us extra linens for the pull out bed, then we found the package of linens in the closet.  Turns out it tells you right on the pull out bed,oops! The pull out sofa was fine and that extra room was nice to spread out.  We appreciated the in room refrigerator and niche to keep snacks.  I particularly liked the large bathroom and good, strong shower.  One of my sons thought the water was soft and it took a while to dry off but I liked it.The breakfast was very good!  Lots of fruit, cereals, muffins/bagels/toast, scrambled eggs &amp; sausages, juice, tea &amp; coffee.  It wasn't too crowded as they have plenty of seating.  The decor is a little bright for my taste but being an interior designer, I'm a little biased.  The vertical ribbon like wallcovering in the eating area makes you dizzy and some of the bright colored corridor carpet was too much.  I know that Marriott corporate likes things bright, so no big deal.Overall it was ideal for Wedding party and guests to stay.  Very convenient to the rehearsal dinner &amp; wedding site.  The lobby is a nice meeting place and my sons enjoyed the pool too.  I would highly recommend this hotel and would stay here again.More</t>
   </si>
   <si>
-    <t>Gaetan777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r216088052-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1786,9 +1666,6 @@
     <t>Overall the price is ok but be sure to book/ask a room at the back of the hotel as the hotel is just in front of a motor way.  Gym is small but at least they have one.  You can relax at the swimming pool and Jacuzzi.  The hotel does not serve lunch/dinner food and has no bar :'(More</t>
   </si>
   <si>
-    <t>breezyww</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r214810277-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1804,9 +1681,6 @@
     <t>We stayed here as part of a group and we were all happy with this pick.  The front desk and staff were very friendly and accommodating.  The rooms were clean and comfortable.  I normally bring my own pillow, but theirs were actually very good.  We really like when the bedding is all white and theirs were.  The breakfast was good and had a lot of choices.  We will stay here again.</t>
   </si>
   <si>
-    <t>Nancy N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r214261160-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1825,9 +1699,6 @@
     <t>We were in Dallas for a business meeting and stayed at Fairfield Inn. The front desk staff were very friendly and helpful. We arrived after 10:00pm  and everything was ready for us. The room was small but extremely comfortable. The pillows were perfect because there were 2 hard and 2 soft. The shower was huge with good water pressure. There was no bathtub which was fine with us. The room had a small refrigerator and microwave. The breakfast each morning was the best I have ever seen! Tortilla shells, sausage, bacon, scrambled eggs to make breakfast tortillas and fresh cut grapefruit and fruit salad. I would highly recommend this hotel!More</t>
   </si>
   <si>
-    <t>Linda B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r213114388-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1846,9 +1717,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Richard S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r213078756-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1859,9 +1727,6 @@
   </si>
   <si>
     <t>Very friendly staff during check in.  Lobby is nicely decorated and equipped.  Room was very clean and comfortable.  Breakfast selection was better than most fake egg breakfast offered by hotels, overall breakfast selection was nice.</t>
-  </si>
-  <si>
-    <t>notyours</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r212110644-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1878,15 +1743,12 @@
   <si>
     <t>I recently spent 3 nights at this property while in town on business.  To be honest I don't have very high expectations of Fairfield Inns, just something simple and clean.  I will say this hotel positively wowed me from the start.  Upon check in the clerk (whose name I sadly didn't get) saw my name on my work shirt and immediately checked me in.  She was very friendly and explained where everything was in the hotel.  She advised that they were booked solid that night and then offered me a drink and a cookie.  She then gave me suggestions for dinner and directions.  Upon returning after dinner she asked me how I enjoyed it.  
 The hotel itself is one of the cleanest I've ever seen.  It is so well taken care of that I was hard pressed to find any defect or fault in maintenance.  Everything seemed brand new, the floor in the lobby positively glowed.  My room was spotless.  I had not encountered this particular design in a Fairfield.  The bathroom with a walk-in shower was huge.  The design was very contemporary with bright colors.  It was tastefully done.  Maybe the hotel was recently remodeled, maybe it was just well taken care of.  
-At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work...I recently spent 3 nights at this property while in town on business.  To be honest I don't have very high expectations of Fairfield Inns, just something simple and clean.  I will say this hotel positively wowed me from the start.  Upon check in the clerk (whose name I sadly didn't get) saw my name on my work shirt and immediately checked me in.  She was very friendly and explained where everything was in the hotel.  She advised that they were booked solid that night and then offered me a drink and a cookie.  She then gave me suggestions for dinner and directions.  Upon returning after dinner she asked me how I enjoyed it.  The hotel itself is one of the cleanest I've ever seen.  It is so well taken care of that I was hard pressed to find any defect or fault in maintenance.  Everything seemed brand new, the floor in the lobby positively glowed.  My room was spotless.  I had not encountered this particular design in a Fairfield.  The bathroom with a walk-in shower was huge.  The design was very contemporary with bright colors.  It was tastefully done.  Maybe the hotel was recently remodeled, maybe it was just well taken care of.  At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work when I returned the housekeeper was just getting to my room.  She seem mortified that I had returned before she completed.  She apologized profusely and her english was limited.  She quickly left and came back with the supervisor who explained to me that everyone checked out of the hotel today and they had been really busy.  She was very apologetic and I told her not to worry about it as I was only popping in to drop off some stuff.  When I came back an hour later the room was spotless.  I also spoke with the GM (again didn't get her name) who was very professional and friendly.  She came right out and said they were trying to be the #1 hotel in the area and if I came across any problems to let her know immediately.  Many of the staff had signed a customer service promise poster that was hanging by the elevator.  Every staff member would greet you pleasantly when they came in contact with you.  The front desk person, regardless of who, always said goodbye when you left and hello when you came in.  They were all very helpful.  There is just something about being in a business that is well run with happy employees.  The...MoreShow less</t>
+At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work...I recently spent 3 nights at this property while in town on business.  To be honest I don't have very high expectations of Fairfield Inns, just something simple and clean.  I will say this hotel positively wowed me from the start.  Upon check in the clerk (whose name I sadly didn't get) saw my name on my work shirt and immediately checked me in.  She was very friendly and explained where everything was in the hotel.  She advised that they were booked solid that night and then offered me a drink and a cookie.  She then gave me suggestions for dinner and directions.  Upon returning after dinner she asked me how I enjoyed it.  The hotel itself is one of the cleanest I've ever seen.  It is so well taken care of that I was hard pressed to find any defect or fault in maintenance.  Everything seemed brand new, the floor in the lobby positively glowed.  My room was spotless.  I had not encountered this particular design in a Fairfield.  The bathroom with a walk-in shower was huge.  The design was very contemporary with bright colors.  It was tastefully done.  Maybe the hotel was recently remodeled, maybe it was just well taken care of.  At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work when I returned the housekeeper was just getting to my room.  She seem mortified that I had returned before she completed.  She apologized profusely and her english was limited.  She quickly left and came back with the supervisor who explained to me that everyone checked out of the hotel today and they had been really busy.  She was very apologetic and I told her not to worry about it as I was only popping in to drop off some stuff.  When I came back an hour later the room was spotless.  I also spoke with the GM (again didn't get her name) who was very professional and friendly.  She came right out and said they were trying to be the #1 hotel in the area and if I came across any problems to let her know immediately.  Many of the staff had signed a customer service promise poster that was hanging by the elevator.  Every staff member would greet you pleasantly when they came in contact with you.  The front desk person, regardless of who, always said goodbye when you left and hello when you came in.  They were all very helpful.  There is just something about being in a business that is well run with happy employees.  The attention to detail and cleanliness is something I would expect to see in a high end expensive hotel.  Some special details that I saw:  Every room had a flap that covered the gap between the door and the floor.  My room was right across from the elevator and I never heard it, or anyone else in the hallway from inside my room.  The gym was small but well equipped and super clean.  Pool and hot tub looked good but I didn't try them.  Breakfast was really above average for a hotel in this class.  Several hot items, the usual bacon, eggs, sausage, biscuits plus a large selection of pastries, cereals, juices. waffles, etc.  Well stocked and taken care of even when full.  Just a few suggestions, I dare not say complaints.  I thought the mattress was too hard, after three nights I could feel it on my back.  I really wish they had electrical outlets on the night stand instead of having to reach around behind it to plug your phone in.  The TV seemed small for the space.  There are no restaurants within walking distance of the hotel and since its on the one-way access road coming and going involves a bit of a drive.  When I first booked I was tempted to stay in Fort Worth or Arlington at one of the more "upscale" properties but I was so glad I did not.  Next time I stay in Arlington or Southeast FW I will drive the extra few miles to stay here.MoreShow less</t>
   </si>
   <si>
     <t>I recently spent 3 nights at this property while in town on business.  To be honest I don't have very high expectations of Fairfield Inns, just something simple and clean.  I will say this hotel positively wowed me from the start.  Upon check in the clerk (whose name I sadly didn't get) saw my name on my work shirt and immediately checked me in.  She was very friendly and explained where everything was in the hotel.  She advised that they were booked solid that night and then offered me a drink and a cookie.  She then gave me suggestions for dinner and directions.  Upon returning after dinner she asked me how I enjoyed it.  
 The hotel itself is one of the cleanest I've ever seen.  It is so well taken care of that I was hard pressed to find any defect or fault in maintenance.  Everything seemed brand new, the floor in the lobby positively glowed.  My room was spotless.  I had not encountered this particular design in a Fairfield.  The bathroom with a walk-in shower was huge.  The design was very contemporary with bright colors.  It was tastefully done.  Maybe the hotel was recently remodeled, maybe it was just well taken care of.  
-At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work...I recently spent 3 nights at this property while in town on business.  To be honest I don't have very high expectations of Fairfield Inns, just something simple and clean.  I will say this hotel positively wowed me from the start.  Upon check in the clerk (whose name I sadly didn't get) saw my name on my work shirt and immediately checked me in.  She was very friendly and explained where everything was in the hotel.  She advised that they were booked solid that night and then offered me a drink and a cookie.  She then gave me suggestions for dinner and directions.  Upon returning after dinner she asked me how I enjoyed it.  The hotel itself is one of the cleanest I've ever seen.  It is so well taken care of that I was hard pressed to find any defect or fault in maintenance.  Everything seemed brand new, the floor in the lobby positively glowed.  My room was spotless.  I had not encountered this particular design in a Fairfield.  The bathroom with a walk-in shower was huge.  The design was very contemporary with bright colors.  It was tastefully done.  Maybe the hotel was recently remodeled, maybe it was just well taken care of.  At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work when I returned the housekeeper was just getting to my room.  She seem mortified that I had returned before she completed.  She apologized profusely and her english was limited.  She quickly left and came back with the supervisor who explained to me that everyone checked out of the hotel today and they had been really busy.  She was very apologetic and I told her not to worry about it as I was only popping in to drop off some stuff.  When I came back an hour later the room was spotless.  I also spoke with the GM (again didn't get her name) who was very professional and friendly.  She came right out and said they were trying to be the #1 hotel in the area and if I came across any problems to let her know immediately.  Many of the staff had signed a customer service promise poster that was hanging by the elevator.  Every staff member would greet you pleasantly when they came in contact with you.  The front desk person, regardless of who, always said goodbye when you left and hello when you came in.  They were all very helpful.  There is just something about being in a business that is well run with happy employees.  The...More</t>
-  </si>
-  <si>
-    <t>Tammy B</t>
+At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work...I recently spent 3 nights at this property while in town on business.  To be honest I don't have very high expectations of Fairfield Inns, just something simple and clean.  I will say this hotel positively wowed me from the start.  Upon check in the clerk (whose name I sadly didn't get) saw my name on my work shirt and immediately checked me in.  She was very friendly and explained where everything was in the hotel.  She advised that they were booked solid that night and then offered me a drink and a cookie.  She then gave me suggestions for dinner and directions.  Upon returning after dinner she asked me how I enjoyed it.  The hotel itself is one of the cleanest I've ever seen.  It is so well taken care of that I was hard pressed to find any defect or fault in maintenance.  Everything seemed brand new, the floor in the lobby positively glowed.  My room was spotless.  I had not encountered this particular design in a Fairfield.  The bathroom with a walk-in shower was huge.  The design was very contemporary with bright colors.  It was tastefully done.  Maybe the hotel was recently remodeled, maybe it was just well taken care of.  At breakfast the first morning it was crowded but the lady who took care of the breakfast area was on top of things.  Nothing was out or lacking, she was constantly restocking and cleaning.  After work when I returned the housekeeper was just getting to my room.  She seem mortified that I had returned before she completed.  She apologized profusely and her english was limited.  She quickly left and came back with the supervisor who explained to me that everyone checked out of the hotel today and they had been really busy.  She was very apologetic and I told her not to worry about it as I was only popping in to drop off some stuff.  When I came back an hour later the room was spotless.  I also spoke with the GM (again didn't get her name) who was very professional and friendly.  She came right out and said they were trying to be the #1 hotel in the area and if I came across any problems to let her know immediately.  Many of the staff had signed a customer service promise poster that was hanging by the elevator.  Every staff member would greet you pleasantly when they came in contact with you.  The front desk person, regardless of who, always said goodbye when you left and hello when you came in.  They were all very helpful.  There is just something about being in a business that is well run with happy employees.  The attention to detail and cleanliness is something I would expect to see in a high end expensive hotel.  Some special details that I saw:  Every room had a flap that covered the gap between the door and the floor.  My room was right across from the elevator and I never heard it, or anyone else in the hallway from inside my room.  The gym was small but well equipped and super clean.  Pool and hot tub looked good but I didn't try them.  Breakfast was really above average for a hotel in this class.  Several hot items, the usual bacon, eggs, sausage, biscuits plus a large selection of pastries, cereals, juices. waffles, etc.  Well stocked and taken care of even when full.  Just a few suggestions, I dare not say complaints.  I thought the mattress was too hard, after three nights I could feel it on my back.  I really wish they had electrical outlets on the night stand instead of having to reach around behind it to plug your phone in.  The TV seemed small for the space.  There are no restaurants within walking distance of the hotel and since its on the one-way access road coming and going involves a bit of a drive.  When I first booked I was tempted to stay in Fort Worth or Arlington at one of the more "upscale" properties but I was so glad I did not.  Next time I stay in Arlington or Southeast FW I will drive the extra few miles to stay here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r204104334-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -1910,9 +1772,6 @@
     <t>Our Dance Company - "On Our Toes" stayed at this hotel this past weekend.  We've stayed at many hotels for competitions over the past 10 years and I can not remember a hotel ever being this accommodating.We experienced excellent service from the time we checked in until - after we'd left our stay...Check in was very friendly!  We usually book in a group but rarely show up together which was the case this weekend.  Check in staff was very friendly and help us sort out our rooms, and made sure we were still grouped together.  We were offered a snack upon arriving.  Very nice after a 3+ hour trip!The breakfast staff opened early so our girls could get a good hot breakfast before competition.  They had also prepared ziplock bags of grapes and oranges for the dancers to take with them for a snack.When we got back to the hotel we had goody bags waiting for the girls.   After we left I thought I left a bag.  I called the hotel and although the housekeeping office was closed the clerk looked through the log and even went outside to see if I'd left it on the bench.  We found it!If ever in the area, this will be our first choice because they went above and beyond to make our stay enjoyable.We wiThis hotelMore</t>
   </si>
   <si>
-    <t>Peggy P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r193857346-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1931,9 +1790,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>wmralls</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r177797812-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1952,9 +1808,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>JessP2009</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r166805933-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1973,9 +1826,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>WLF_0788</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r165075376-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1994,9 +1844,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>TruthBTold80</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r163630602-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2009,9 +1856,6 @@
     <t xml:space="preserve">My family of four had a decent one night stay here. We were pleased with the location and appearance of the hotel. Our room was a bit smelly. The pool and hot tub were nice maybe a little to much on the chemicals. Bathrooms were clean and large. Breakfast had many selections but we were not able to eat in the cafe area due to overcrowding. Staff was nice and helpful at check-in.  Overall a good value. </t>
   </si>
   <si>
-    <t>jmstover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r163027539-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2030,9 +1874,6 @@
     <t>Marriott was giving 5,000 points for staying twice at a Fairfield so I thought I'd give this one a try as the exterior photos looked good.  How can I go wrong if the outside looks good, right?  I freely confess that this hotel is beautiful and it's fairly new.  The front desk clerk was very friendly and helpful and she checked me in early.  When I was done working I went to the fitness center and did an hour on the elliptical.  The equipment is nice Precor with TVs.  There are no sanitizing wipes to clean the equipment when you're done so good luck with that.  I came back to the room to shower and there was a big line of mold under the clear caulking in the bottom of the shower.  I uploaded a photo of this for your viewing pleasure.  Do these hotel general managers even do rounds with their housekeeping supervisor and maintenance person?  How can you not see this big black line of mold in the bottom of a white shower?  Maintenance needs to scrape up the caulking and re-caulk with white caulk.  And if the general manager doesn't think it's important to do room rounds at least monthly then they should at least train their housekeeping staff to write work orders when they see maintenance issues like this.  This is actually a nice hotel for a Fairfield with just a couple exceptions dragging down my...Marriott was giving 5,000 points for staying twice at a Fairfield so I thought I'd give this one a try as the exterior photos looked good.  How can I go wrong if the outside looks good, right?  I freely confess that this hotel is beautiful and it's fairly new.  The front desk clerk was very friendly and helpful and she checked me in early.  When I was done working I went to the fitness center and did an hour on the elliptical.  The equipment is nice Precor with TVs.  There are no sanitizing wipes to clean the equipment when you're done so good luck with that.  I came back to the room to shower and there was a big line of mold under the clear caulking in the bottom of the shower.  I uploaded a photo of this for your viewing pleasure.  Do these hotel general managers even do rounds with their housekeeping supervisor and maintenance person?  How can you not see this big black line of mold in the bottom of a white shower?  Maintenance needs to scrape up the caulking and re-caulk with white caulk.  And if the general manager doesn't think it's important to do room rounds at least monthly then they should at least train their housekeeping staff to write work orders when they see maintenance issues like this.  This is actually a nice hotel for a Fairfield with just a couple exceptions dragging down my rating.More</t>
   </si>
   <si>
-    <t>StaceyH44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r158073619-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2048,9 +1889,6 @@
     <t xml:space="preserve">We purchased our room for 2 nights on Priceline, and received a better price than going through the Marriott website.The front desk personnel were very polite and helpful. The (free) continental breakfast had a good variety of fresh fruits, pastries, cereals and, my kid's favorite- the TEXAS waffle iron!The room was clean and comfortable. Not overly spacious- but we just used it to sleep, so it served its purpose. </t>
   </si>
   <si>
-    <t>Crickettgirl64</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r155240300-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2064,9 +1902,6 @@
   </si>
   <si>
     <t xml:space="preserve">We are waiting on a call from management in regards to finding a towel neatly folded and placed on the towel rack in the bathroom. When getting in the shower, unfolded the towel to find 2 bloody spots on it.  It wasn't a stain but bright red smeared blood. The girl at the desk offered no apologies or even a comment.  We were so tired after traveling all day or would have left. I slept terrible worrying if I was even sleeping on clean sheets. We will see what management does. Will call corporate today if our bill isn't adjusted. </t>
-  </si>
-  <si>
-    <t>Scott B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r155100793-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -2099,9 +1934,6 @@
 The...After searching MANY hotels options in the surrounding area, we decided to stay here based on location and the price we got it for. I read the reviews and they are pretty much spot on.  Our biggest disappointment was how firm the bed is.  I read this in the reviews, but was hoping it was exaggerated (sadly, it wasn't).  The woman at the front desk was very personable and easy to joke with.  Every encounter with the staff was great! The TV channels are pretty limited and no way to order a movie. Next time, I will bring my laptop and an HDMI cable to hook up to the TV and watch a movie. The room was a little small but it was clean and served its purpose.  Halfway through our stay, as we were heading out at 3 in the afternoon, we asked to have housekeeping change the bedding and refresh the bathroom and they did it without making a big deal about it.We too stayed facing the highway, but kept the air conditioning fan going all the time (I don't like to sleep when its too quiet...you hear every noise) therefore the highway noise was never an issue at all.  The hotel was very quiet (especially being that it was spring break).We slept in both days and didn't make it to breakfast, nor did we use the indoor pool, so I cant comment on them.The overall experience was great (only the firm bed and limited TV stations kept it from a 5 star rating) and I would not hesitate to stay there again!  If you are considering this as an option, I don't think you'll be disappointed.More</t>
   </si>
   <si>
-    <t>Kirk J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r154563563-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2123,9 +1955,6 @@
     <t>I was in Mansfield on business recently, and chose to stay here based on a list of local hotels provided to me. This is a newer hotel, so they have that working in their favor. While the location on a frontage road may be confusing for some, I was able to find the hotel relatively quickly. Upon arrival, I was greeted promptly at the front desk by a very friendly clerk. During the check-in process I received an explanation of where the amenities were located within the hotel, and the hours when they were available. Upon arrival in my room, I was pleased to find it clean without that stale air smell many hotels have. Breakfast the next day was very good for this level of hotel, and they had a variety of choices. The only downside to my stay was that my room was on the highway side of the hotel. The traffic noise picked up considerably in the early morning hours. The next time I stay here, I will be sure to request a room on the back side of the hotel where it should be quieter.More</t>
   </si>
   <si>
-    <t>Dan S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r154007797-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2141,9 +1970,6 @@
     <t>I was in Mansfield recently and stayed at this propertyfor the night. The staff that was on when I arrived was very helpful and put me in the exact room that is on my profile. I was able to use the store they have In the lobby and they have all the typical fair. As for the morning breakfast they have those great Texas waffle makers you only get In Texas and all the other great things to get the day started. I will stay here again if I am in the area.</t>
   </si>
   <si>
-    <t>LLCherie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r152978082-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2160,9 +1986,6 @@
   </si>
   <si>
     <t>My family and I stay not too far from this hotel so since we needed a place to stay for a few days while our wood floors were being redid we decided to stay here at Fairfield. Our suite was nicely decorated and the linens were freshly washed and everything seemed pretty clean EXCEPT the carpet. I hate going to hotels and their carpet is soiled with stains and God knows what else. I would have given this hotel a Very Good rating if it were not for the carpet. Also, the breakfast was sub par even though it was free. We were informed that the hotel would be changing their breakfast to a more full breakfast, ie. eggs, bacon, sausage etc. but that it wouldn't take effect until the week after we were gone! So, I guess once the breakfast is upgraded the hotel will be in pretty good standards with the exception of the dirty carpet; which they really need to fix. The hotel staff was very friendly and helpful. We loved the indoor swimming pool and hot tub also.More</t>
-  </si>
-  <si>
-    <t>ilive4sun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r149753682-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -2190,9 +2013,6 @@
 The bathroom is average sized, plenty of counter space, with Pantene shampoo and conditioner. One thing that drives me crazy (and it's the same way at the Hilton-Polaris in Columbus, OH)...if you get a king bed, you get a shower only....no tub.  Only queen bed rooms have bathtubs.  What sense does that make?  My husband and I are tall AND I'd like to relax in a tub to shave my legs...sheesh!  The towels aren't overly soft, but the water is too soft for my tastes.  Always feels like the soap isn't rinsing all the way off.
 I agree about the TV channel selection.  Wanted to watch E, but they don't have that one either.  But hey, with computers and all shows now being online, it's no problem in the big scheme of things.  Almost beats searching through too many stations to find something good to watch!
 We bring a sound machine with us on the road,...We are enjoying our 2 day stay here.  Our GPS didn't know it was on the Frontage Road, not directly on Rt. 287, so we had to do a loop around unfortunately.  Once we arrived, we were very happy with the accommodations.  Very friendly staff, well equipped business center, good coffee and decent breakfast choices.  The king room is not large, but okay for a short stay.  I didn't think the bed was too bad, but my husband did comment that it was hard.  The bathroom is average sized, plenty of counter space, with Pantene shampoo and conditioner. One thing that drives me crazy (and it's the same way at the Hilton-Polaris in Columbus, OH)...if you get a king bed, you get a shower only....no tub.  Only queen bed rooms have bathtubs.  What sense does that make?  My husband and I are tall AND I'd like to relax in a tub to shave my legs...sheesh!  The towels aren't overly soft, but the water is too soft for my tastes.  Always feels like the soap isn't rinsing all the way off.I agree about the TV channel selection.  Wanted to watch E, but they don't have that one either.  But hey, with computers and all shows now being online, it's no problem in the big scheme of things.  Almost beats searching through too many stations to find something good to watch!We bring a sound machine with us on the road, so we slept just fine.  The decor is definitely updated from the old Fairfield Inns, and the makeover was needed.  This is a good budget friendly hotel, and we'd stay here again.More</t>
-  </si>
-  <si>
-    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r138369558-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -2215,7 +2035,7 @@
 A 32" LCD television sat atop the dresser. Reception was great, but We were disappointed to find relatively few viewing options. Programmng from the major networks was provided, as were a lot of sports channels. But notable favorites like the Food Network were missing.
 Although our room was attractive, several features were not to our liking.
 1) The closet was about the size of a broom closet. We were unable to store all our luggage in the small space provided.
-2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too...Positives: beautiful decor, very clean, convenient locationNegatives: very firm mattresses, highway noise, limited television optionsMansfield is one of dozens of towns absorbed by the expanding Dallas/Fort Worth metroplex. Housing and commercial development have been ongoing the twenty years we've been coming this way. However, lodging construction has lagged. A few hotels have finally cropped up along Highway 287. This Fairfield Inn is one of them.Inside and out, this property is exceptionally clean...we didn't even see oil stains in the parking lot! It's tastefully decorated in the latest Fairfield motif. The lobby, breakfast area, pool and room were very attractive and inviting.Our room was equipped with two queen-sized beds, a combo dresser/entertainment armoire, and a small desk and chair. The armoire contained a small refrigerator and microwave. A wired internet connection sat on the desk; wireless is also available.A 32" LCD television sat atop the dresser. Reception was great, but We were disappointed to find relatively few viewing options. Programmng from the major networks was provided, as were a lot of sports channels. But notable favorites like the Food Network were missing.Although our room was attractive, several features were not to our liking.1) The closet was about the size of a broom closet. We were unable to store all our luggage in the small space provided.2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too hard. Our beds felt like 3/4" sheets of plywood with a 2" memory foam top. I slept reasonably well but woke with a stiff back; my wife slept fitfully the entire stay. Some people may prefer them to previous versions, but we like earlier mattresses better.Unfortunately, we've seen this same style of mattress in a number of renovated Marriott properties. Soon, we may not be able to avoid them.3) Our room faced the highway. The muffled sound of trucks could be heard day and night. Rooms on the back side of the hotel are probably quieter. We could also hear muffled voices in one adjacent room, but the occupants seemed to speak rather loudly. We couldn't hear voices from any other room, nor could we hear footsteps above.We particularly enjoyed the pool and whirlpool. The area was also exceptionally clean. Pool depth ranged from 3'-6" to 5'-6". The water was much cooler than expected, even though the pool room is not air conditioned and the...MoreShow less</t>
+2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too...Positives: beautiful decor, very clean, convenient locationNegatives: very firm mattresses, highway noise, limited television optionsMansfield is one of dozens of towns absorbed by the expanding Dallas/Fort Worth metroplex. Housing and commercial development have been ongoing the twenty years we've been coming this way. However, lodging construction has lagged. A few hotels have finally cropped up along Highway 287. This Fairfield Inn is one of them.Inside and out, this property is exceptionally clean...we didn't even see oil stains in the parking lot! It's tastefully decorated in the latest Fairfield motif. The lobby, breakfast area, pool and room were very attractive and inviting.Our room was equipped with two queen-sized beds, a combo dresser/entertainment armoire, and a small desk and chair. The armoire contained a small refrigerator and microwave. A wired internet connection sat on the desk; wireless is also available.A 32" LCD television sat atop the dresser. Reception was great, but We were disappointed to find relatively few viewing options. Programmng from the major networks was provided, as were a lot of sports channels. But notable favorites like the Food Network were missing.Although our room was attractive, several features were not to our liking.1) The closet was about the size of a broom closet. We were unable to store all our luggage in the small space provided.2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too hard. Our beds felt like 3/4" sheets of plywood with a 2" memory foam top. I slept reasonably well but woke with a stiff back; my wife slept fitfully the entire stay. Some people may prefer them to previous versions, but we like earlier mattresses better.Unfortunately, we've seen this same style of mattress in a number of renovated Marriott properties. Soon, we may not be able to avoid them.3) Our room faced the highway. The muffled sound of trucks could be heard day and night. Rooms on the back side of the hotel are probably quieter. We could also hear muffled voices in one adjacent room, but the occupants seemed to speak rather loudly. We couldn't hear voices from any other room, nor could we hear footsteps above.We particularly enjoyed the pool and whirlpool. The area was also exceptionally clean. Pool depth ranged from 3'-6" to 5'-6". The water was much cooler than expected, even though the pool room is not air conditioned and the door to the patio (and temperatures in the mid-90s) was open. Although not large, it was fun to swim in. The hot tub felt great after splashing in the cool pool.Breakfast was typical of contemporary hotels in this class: bagels, cereals, boiled eggs, microwaveable breakfast sandwiches, and make-them-yourself waffles... Of course, being in the D/FW area... the griddle just HAD to be in the shape of the state of Texas!Had the mattresses been more comfortable, we'd rate this property a "five". It's a beautiful place in a convenient location with nice amenities and friendly employees. Because of it's location, we may stay in the future, but will ask for a room away from the highway.MoreShow less</t>
   </si>
   <si>
     <t>August 2012</t>
@@ -2229,10 +2049,7 @@
 A 32" LCD television sat atop the dresser. Reception was great, but We were disappointed to find relatively few viewing options. Programmng from the major networks was provided, as were a lot of sports channels. But notable favorites like the Food Network were missing.
 Although our room was attractive, several features were not to our liking.
 1) The closet was about the size of a broom closet. We were unable to store all our luggage in the small space provided.
-2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too...Positives: beautiful decor, very clean, convenient locationNegatives: very firm mattresses, highway noise, limited television optionsMansfield is one of dozens of towns absorbed by the expanding Dallas/Fort Worth metroplex. Housing and commercial development have been ongoing the twenty years we've been coming this way. However, lodging construction has lagged. A few hotels have finally cropped up along Highway 287. This Fairfield Inn is one of them.Inside and out, this property is exceptionally clean...we didn't even see oil stains in the parking lot! It's tastefully decorated in the latest Fairfield motif. The lobby, breakfast area, pool and room were very attractive and inviting.Our room was equipped with two queen-sized beds, a combo dresser/entertainment armoire, and a small desk and chair. The armoire contained a small refrigerator and microwave. A wired internet connection sat on the desk; wireless is also available.A 32" LCD television sat atop the dresser. Reception was great, but We were disappointed to find relatively few viewing options. Programmng from the major networks was provided, as were a lot of sports channels. But notable favorites like the Food Network were missing.Although our room was attractive, several features were not to our liking.1) The closet was about the size of a broom closet. We were unable to store all our luggage in the small space provided.2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too hard. Our beds felt like 3/4" sheets of plywood with a 2" memory foam top. I slept reasonably well but woke with a stiff back; my wife slept fitfully the entire stay. Some people may prefer them to previous versions, but we like earlier mattresses better.Unfortunately, we've seen this same style of mattress in a number of renovated Marriott properties. Soon, we may not be able to avoid them.3) Our room faced the highway. The muffled sound of trucks could be heard day and night. Rooms on the back side of the hotel are probably quieter. We could also hear muffled voices in one adjacent room, but the occupants seemed to speak rather loudly. We couldn't hear voices from any other room, nor could we hear footsteps above.We particularly enjoyed the pool and whirlpool. The area was also exceptionally clean. Pool depth ranged from 3'-6" to 5'-6". The water was much cooler than expected, even though the pool room is not air conditioned and the...More</t>
-  </si>
-  <si>
-    <t>DynamiteDave</t>
+2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too...Positives: beautiful decor, very clean, convenient locationNegatives: very firm mattresses, highway noise, limited television optionsMansfield is one of dozens of towns absorbed by the expanding Dallas/Fort Worth metroplex. Housing and commercial development have been ongoing the twenty years we've been coming this way. However, lodging construction has lagged. A few hotels have finally cropped up along Highway 287. This Fairfield Inn is one of them.Inside and out, this property is exceptionally clean...we didn't even see oil stains in the parking lot! It's tastefully decorated in the latest Fairfield motif. The lobby, breakfast area, pool and room were very attractive and inviting.Our room was equipped with two queen-sized beds, a combo dresser/entertainment armoire, and a small desk and chair. The armoire contained a small refrigerator and microwave. A wired internet connection sat on the desk; wireless is also available.A 32" LCD television sat atop the dresser. Reception was great, but We were disappointed to find relatively few viewing options. Programmng from the major networks was provided, as were a lot of sports channels. But notable favorites like the Food Network were missing.Although our room was attractive, several features were not to our liking.1) The closet was about the size of a broom closet. We were unable to store all our luggage in the small space provided.2) Mattresses in our room were very stiff. We are accustomed to moderate firmness...not too soft, not too hard. Our beds felt like 3/4" sheets of plywood with a 2" memory foam top. I slept reasonably well but woke with a stiff back; my wife slept fitfully the entire stay. Some people may prefer them to previous versions, but we like earlier mattresses better.Unfortunately, we've seen this same style of mattress in a number of renovated Marriott properties. Soon, we may not be able to avoid them.3) Our room faced the highway. The muffled sound of trucks could be heard day and night. Rooms on the back side of the hotel are probably quieter. We could also hear muffled voices in one adjacent room, but the occupants seemed to speak rather loudly. We couldn't hear voices from any other room, nor could we hear footsteps above.We particularly enjoyed the pool and whirlpool. The area was also exceptionally clean. Pool depth ranged from 3'-6" to 5'-6". The water was much cooler than expected, even though the pool room is not air conditioned and the door to the patio (and temperatures in the mid-90s) was open. Although not large, it was fun to swim in. The hot tub felt great after splashing in the cool pool.Breakfast was typical of contemporary hotels in this class: bagels, cereals, boiled eggs, microwaveable breakfast sandwiches, and make-them-yourself waffles... Of course, being in the D/FW area... the griddle just HAD to be in the shape of the state of Texas!Had the mattresses been more comfortable, we'd rate this property a "five". It's a beautiful place in a convenient location with nice amenities and friendly employees. Because of it's location, we may stay in the future, but will ask for a room away from the highway.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r130952574-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -2256,9 +2073,6 @@
     <t>Stayed at this hotel instead of downtown Fort Worth, mostly because of proximity to relatives in nearby Arlington.  Three day stay.  The room itself was comfortable and clean, everything worked well from the plumbing to the television to the air conditioning.  I had a room on the backside of the hotel and a pretty nice view of a forested area behind the hotel as well as the well-lit rear parking where my car was.  Had to approach the hotel from one direction because it's on a one-way frontage road along the freeway, but driving the 2 mile loop provided a lot of eating and shopping options.  Took my relatives to a great little sushi restaurant less than a mile from the property.  The breakfast buffet was decent, included pastries, waffle maker, fruits, cereals, toaster, boiled eggs.  There was an attendant over the buffet who offered to bring coffee,etc.My convention was in downtown Fort Worth, and it was fairly quick commute with easy access to the freeway.More</t>
   </si>
   <si>
-    <t>rniam69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r130383105-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2274,9 +2088,6 @@
     <t>the staff could not have been better. friendly,helpful and very accomidating.room was very clean. the breakfast was really appealing.  great variety and healthy selections abailable.the only downside was that we did not notice on the reviews that they dont have bathtubs.  large showers but no benches to sit on. unfotunately, a bathtub is a hotel requirement for us.  this is an area we will return to frequently as that is where one granchild lives. safly, we wont book this hotel again due to lack of bathtub.  if this is not a problem, i would definitly recommend this hotel.</t>
   </si>
   <si>
-    <t>travelingfriends63</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r128529531-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2295,9 +2106,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>iheartbball</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r126912638-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2313,9 +2121,6 @@
     <t>We traveled here for a basketball tournament with 11 teenage girls. The rooms were clean, the service was excellent, and the breakfast was decent. The price was reasonable. I heard others mention that the beds were hard, but I slept very well. I love the area close to the hotel. There are lots of restaurants, shopping, and a movie theater.We will stay here again!</t>
   </si>
   <si>
-    <t>shawtysantos</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r123662250-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2331,9 +2136,6 @@
     <t>Very nice overall..kids loved it and the the breakfast was great wish they had a tub in the king suites but very good choice..</t>
   </si>
   <si>
-    <t>Redleg6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r122731404-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2352,9 +2154,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>mel88hrman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r119204272-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2376,9 +2175,6 @@
     <t>This is a the new format for Fairfield Inn and I like it.  Check in was smooth as I was recognized vas an Marriott Platnum Member.  The lobby is open and fresh. The decor is modern and clean.  The room was very nice.  The bed was large king and comfortable.  There were foam and softer pillows.  The linen was fresh and towels thick compared to other Fairfield.  Breakfast was typical oatmeal the Jimmy Dean sandwiches and other continental favors.  Customer service was good.  I tried to use the fitness center which has up to date treadmills (2) with TV but one was in use and the other did not work.  There is a ski glide as well.  They had no headphones at the front desk as advertised but clerk gave me a free bottle of water.  My advice would be to request a room on the back if you are a light sleeper as the even numbered rooms on the front face the freeway and service road.  It can be noisy.  Overall good stay!  I will stay here again.More</t>
   </si>
   <si>
-    <t>Mussmule</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r117774175-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2394,9 +2190,6 @@
     <t>Stayed at this property when attending a football game @ Cowboy Stadium.  Very clean hotel with friendly staff, convenient to Arlington. Thoroughly enjoyed our stay.</t>
   </si>
   <si>
-    <t>3dvizwiz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r114689864-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2418,9 +2211,6 @@
     <t>I stayed here twice on a driving trip from Denver to Houston, once en route, and once during the return.  My initial stay was wonderful.  Clean, quiet, comfortable, completely functional room, pleasant staff during checkin.  I was looking forward to my return stay the next week.My return stay was... well, challenging.  After four tries to enter the room with either keys or a lock on the particular door that didn't work properly, I was at last assigned a different room after requesting one for several times.  The drapery-pull-rod on the room-darkening drapes came off in my hand, and I needed to cobble together a means for keeping the room reasonably dark.  The staff seemed to be trying to please, but weren't particularly listening to my requests that evening. I never did find out if the other room's lock was working properly or not... but at that point, I didn't care all that much.All in all, it was a confusing experience.  My initial stay was so good that I could try to forgive my return stay, but it's difficult.  I do not know if I would be willing to stay there again.More</t>
   </si>
   <si>
-    <t>Gailygirl123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r101275154-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2442,9 +2232,6 @@
     <t>The overall look of this hotel and the rooms is very nice; however, I was disappointed with the cleanliness and lack of service in some areas.  We had to go to the front desk to get shampoo for our room as well as a couple of other things that were missing.  We also had to ask to have our room cleaned because, by afternoon, no one had come by.  When housekeeping did clean, it was done very poorly.  We picked this hotel specifically for the breakfast and the indoor pool; however, the breakfast was very disappointing as it was not well-stocked and we had to repeatedly ask for things like milk, fruit, etc.  The pool heater was not working (so the spa was cold as well!) and when we asked about it the person at the front desk just said that it may be fixed the next week.  We did meet another family that was staying there for the weekend for their son's birthday specifically for the pool!  Marriott Hotels generally have a great name and reputation; however, I was very disappointed with this hotel.More</t>
   </si>
   <si>
-    <t>rcooper1122</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r89298018-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2463,9 +2250,6 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>Kansastraveller1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r89035094-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2484,9 +2268,6 @@
     <t>November 2010</t>
   </si>
   <si>
-    <t>monakays</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r72905311-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2503,9 +2284,6 @@
   </si>
   <si>
     <t>July 2010</t>
-  </si>
-  <si>
-    <t>Louisiana_Man_88</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r59824315-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -2528,9 +2306,6 @@
     <t>We stayed at the Fairfield Inn &amp; Suites in Mansfield during March for a baseball event.  We arrived at noon (a few hours before check-in) and were greeted by a nice gentleman, and he gave us our keys to our room.  
 We went up to our room via the elevator and loved the room.  The hotel has a light green decor, and everything was up to tip-top shape.  The room was very large and of course, clean.  Our suite had 2 queen beds and a pull-out sofa.  A large 42-inch TV (with HD) was also in the room.  The beds were very soft and almost "fit to your shape".  I didn't sleep on the couch, so I can't comment on that.  Also, there was free WiFi in the room, which was moderately fast.  The bathroom was, as said in the last review, very large and extremely clean.  The bathroom had 4 bath towels, 4 hand towels, and 4 wash cloths.  Pantene shampoo and conditioner were also provided.  
 There are many restaurants within 30 seconds of this hotel going to the restaurants and about 5 minutes coming back due to the one way street in front of this property.  Some close restaurants include Buffalo Wild Wind's, MaMa's Pizza, and a steakhouse of some sort.  We then went back to our hotel and went to the small to moderate sized indoor pool and whirlpool.  This place also had a fairly nice fitness...We stayed at the Fairfield Inn &amp; Suites in Mansfield during March for a baseball event.  We arrived at noon (a few hours before check-in) and were greeted by a nice gentleman, and he gave us our keys to our room.  We went up to our room via the elevator and loved the room.  The hotel has a light green decor, and everything was up to tip-top shape.  The room was very large and of course, clean.  Our suite had 2 queen beds and a pull-out sofa.  A large 42-inch TV (with HD) was also in the room.  The beds were very soft and almost "fit to your shape".  I didn't sleep on the couch, so I can't comment on that.  Also, there was free WiFi in the room, which was moderately fast.  The bathroom was, as said in the last review, very large and extremely clean.  The bathroom had 4 bath towels, 4 hand towels, and 4 wash cloths.  Pantene shampoo and conditioner were also provided.  There are many restaurants within 30 seconds of this hotel going to the restaurants and about 5 minutes coming back due to the one way street in front of this property.  Some close restaurants include Buffalo Wild Wind's, MaMa's Pizza, and a steakhouse of some sort.  We then went back to our hotel and went to the small to moderate sized indoor pool and whirlpool.  This place also had a fairly nice fitness center with about 5 pieces of equipment.  Also on site were a business center and guest laundry.  In the morning, we were greeted by a free breakfast.  From 7-10 AM (on weekends), a nice breakfast is served conisting of make-em'-yourself waffles, coffee, fruit pastries, fruit, boiled eggs, muffins, oatmeal, and assorted juices and milk.  Also, there are bacon or sausage, egg, and cheese pre-wrapped biscuits in a refridgerator to be heated in the microwave.  All and all, this place is very nice and clean.  You can't go wrong staying here.More</t>
-  </si>
-  <si>
-    <t>TexasJJ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d1468036-r46296235-Fairfield_Inn_Suites_Dallas_Mansfield-Mansfield_Texas.html</t>
@@ -3056,47 +2831,43 @@
       <c r="A2" t="n">
         <v>59125</v>
       </c>
-      <c r="B2" t="n">
-        <v>136553</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3107,138 +2878,118 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59125</v>
       </c>
-      <c r="B3" t="n">
-        <v>136554</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59125</v>
       </c>
-      <c r="B4" t="n">
-        <v>136555</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="s"/>
@@ -3246,69 +2997,63 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59125</v>
       </c>
-      <c r="B5" t="n">
-        <v>6580</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
       <c r="O5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -3317,401 +3062,379 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59125</v>
       </c>
-      <c r="B6" t="n">
-        <v>136556</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59125</v>
       </c>
-      <c r="B7" t="n">
-        <v>15918</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
         <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59125</v>
       </c>
-      <c r="B8" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59125</v>
       </c>
-      <c r="B9" t="n">
-        <v>136557</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>118</v>
-      </c>
-      <c r="X9" t="s">
-        <v>119</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59125</v>
       </c>
-      <c r="B10" t="n">
-        <v>700</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59125</v>
       </c>
-      <c r="B11" t="n">
-        <v>136558</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -3721,190 +3444,186 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59125</v>
       </c>
-      <c r="B12" t="n">
-        <v>136559</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>147</v>
-      </c>
-      <c r="X12" t="s">
-        <v>148</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59125</v>
       </c>
-      <c r="B13" t="n">
-        <v>19432</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59125</v>
       </c>
-      <c r="B14" t="n">
-        <v>8799</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3916,125 +3635,117 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59125</v>
       </c>
-      <c r="B15" t="n">
-        <v>136560</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59125</v>
       </c>
-      <c r="B16" t="n">
-        <v>136561</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4046,129 +3757,117 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59125</v>
       </c>
-      <c r="B17" t="n">
-        <v>136562</v>
-      </c>
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>193</v>
-      </c>
-      <c r="X17" t="s">
-        <v>194</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59125</v>
       </c>
-      <c r="B18" t="n">
-        <v>136563</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4180,206 +3879,188 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59125</v>
       </c>
-      <c r="B19" t="n">
-        <v>136564</v>
-      </c>
-      <c r="C19" t="s">
-        <v>205</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59125</v>
       </c>
-      <c r="B20" t="n">
-        <v>18813</v>
-      </c>
-      <c r="C20" t="s">
-        <v>215</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59125</v>
       </c>
-      <c r="B21" t="n">
-        <v>136565</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -4389,457 +4070,439 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59125</v>
       </c>
-      <c r="B22" t="n">
-        <v>136566</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59125</v>
       </c>
-      <c r="B23" t="n">
-        <v>136567</v>
-      </c>
-      <c r="C23" t="s">
-        <v>243</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59125</v>
       </c>
-      <c r="B24" t="n">
-        <v>136568</v>
-      </c>
-      <c r="C24" t="s">
-        <v>252</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59125</v>
       </c>
-      <c r="B25" t="n">
-        <v>18703</v>
-      </c>
-      <c r="C25" t="s">
-        <v>258</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59125</v>
       </c>
-      <c r="B26" t="n">
-        <v>265</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="N26" t="s">
-        <v>264</v>
-      </c>
-      <c r="O26" t="s">
-        <v>82</v>
-      </c>
-      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="X26" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59125</v>
       </c>
-      <c r="B27" t="n">
-        <v>136569</v>
-      </c>
-      <c r="C27" t="s">
-        <v>275</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>282</v>
-      </c>
-      <c r="X27" t="s">
-        <v>283</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59125</v>
       </c>
-      <c r="B28" t="n">
-        <v>136570</v>
-      </c>
-      <c r="C28" t="s">
-        <v>285</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -4849,360 +4512,357 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>261</v>
+      </c>
+      <c r="X28" t="s">
+        <v>262</v>
+      </c>
       <c r="Y28" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59125</v>
       </c>
-      <c r="B29" t="n">
-        <v>136571</v>
-      </c>
-      <c r="C29" t="s">
-        <v>291</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
-      </c>
-      <c r="J29" t="s"/>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>269</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59125</v>
       </c>
-      <c r="B30" t="n">
-        <v>136572</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="K30" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s">
-        <v>300</v>
-      </c>
-      <c r="O30" t="s">
-        <v>82</v>
-      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59125</v>
       </c>
-      <c r="B31" t="n">
-        <v>136573</v>
-      </c>
-      <c r="C31" t="s">
-        <v>302</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
       <c r="Y31" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59125</v>
       </c>
-      <c r="B32" t="n">
-        <v>136574</v>
-      </c>
-      <c r="C32" t="s">
-        <v>310</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>93</v>
+      </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>316</v>
-      </c>
-      <c r="X32" t="s">
-        <v>317</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59125</v>
       </c>
-      <c r="B33" t="n">
-        <v>106549</v>
-      </c>
-      <c r="C33" t="s">
-        <v>319</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>326</v>
-      </c>
-      <c r="X33" t="s">
-        <v>327</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59125</v>
       </c>
-      <c r="B34" t="n">
-        <v>18840</v>
-      </c>
-      <c r="C34" t="s">
-        <v>329</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="N34" t="s">
-        <v>335</v>
-      </c>
-      <c r="O34" t="s">
-        <v>64</v>
-      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
@@ -5213,131 +4873,117 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59125</v>
       </c>
-      <c r="B35" t="n">
-        <v>136575</v>
-      </c>
-      <c r="C35" t="s">
-        <v>339</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="X35" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="Y35" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59125</v>
       </c>
-      <c r="B36" t="n">
-        <v>136576</v>
-      </c>
-      <c r="C36" t="s">
-        <v>349</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5348,258 +4994,246 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>324</v>
+      </c>
+      <c r="X36" t="s">
+        <v>325</v>
+      </c>
       <c r="Y36" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59125</v>
       </c>
-      <c r="B37" t="n">
-        <v>6976</v>
-      </c>
-      <c r="C37" t="s">
-        <v>356</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="K37" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="X37" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="Y37" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59125</v>
       </c>
-      <c r="B38" t="n">
-        <v>28547</v>
-      </c>
-      <c r="C38" t="s">
-        <v>366</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59125</v>
       </c>
-      <c r="B39" t="n">
-        <v>136577</v>
-      </c>
-      <c r="C39" t="s">
-        <v>373</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="J39" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>348</v>
+      </c>
+      <c r="X39" t="s">
+        <v>349</v>
+      </c>
       <c r="Y39" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59125</v>
       </c>
-      <c r="B40" t="n">
-        <v>136578</v>
-      </c>
-      <c r="C40" t="s">
-        <v>381</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
       <c r="Q40" t="n">
         <v>4</v>
       </c>
@@ -5607,7 +5241,7 @@
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5615,66 +5249,62 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59125</v>
       </c>
-      <c r="B41" t="n">
-        <v>88582</v>
-      </c>
-      <c r="C41" t="s">
-        <v>387</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5682,64 +5312,60 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59125</v>
       </c>
-      <c r="B42" t="n">
-        <v>136579</v>
-      </c>
-      <c r="C42" t="s">
-        <v>393</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -5747,177 +5373,175 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59125</v>
       </c>
-      <c r="B43" t="n">
-        <v>136580</v>
-      </c>
-      <c r="C43" t="s">
-        <v>400</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="O43" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>407</v>
-      </c>
-      <c r="X43" t="s">
-        <v>408</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59125</v>
       </c>
-      <c r="B44" t="n">
-        <v>136581</v>
-      </c>
-      <c r="C44" t="s">
-        <v>410</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59125</v>
       </c>
-      <c r="B45" t="n">
-        <v>136582</v>
-      </c>
-      <c r="C45" t="s">
-        <v>416</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="J45" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="K45" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
@@ -5928,60 +5552,56 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="X45" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="Y45" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59125</v>
       </c>
-      <c r="B46" t="n">
-        <v>73996</v>
-      </c>
-      <c r="C46" t="s">
-        <v>425</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="J46" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="K46" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="O46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5992,62 +5612,50 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>422</v>
-      </c>
-      <c r="X46" t="s">
-        <v>423</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59125</v>
       </c>
-      <c r="B47" t="n">
-        <v>136583</v>
-      </c>
-      <c r="C47" t="s">
-        <v>432</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="J47" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" t="s">
-        <v>438</v>
-      </c>
-      <c r="O47" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
@@ -6057,57 +5665,57 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>399</v>
+      </c>
+      <c r="X47" t="s">
+        <v>400</v>
+      </c>
       <c r="Y47" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59125</v>
       </c>
-      <c r="B48" t="n">
-        <v>136584</v>
-      </c>
-      <c r="C48" t="s">
-        <v>440</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="J48" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6119,272 +5727,246 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="X48" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Y48" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59125</v>
       </c>
-      <c r="B49" t="n">
-        <v>136585</v>
-      </c>
-      <c r="C49" t="s">
-        <v>450</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="J49" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59125</v>
       </c>
-      <c r="B50" t="n">
-        <v>136586</v>
-      </c>
-      <c r="C50" t="s">
-        <v>456</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="X50" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="Y50" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59125</v>
       </c>
-      <c r="B51" t="n">
-        <v>4246</v>
-      </c>
-      <c r="C51" t="s">
-        <v>466</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="J51" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="K51" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="O51" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>463</v>
-      </c>
-      <c r="X51" t="s">
-        <v>464</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59125</v>
       </c>
-      <c r="B52" t="n">
-        <v>17077</v>
-      </c>
-      <c r="C52" t="s">
-        <v>474</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="O52" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>4</v>
@@ -6392,57 +5974,57 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>435</v>
+      </c>
+      <c r="X52" t="s">
+        <v>436</v>
+      </c>
       <c r="Y52" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59125</v>
       </c>
-      <c r="B53" t="n">
-        <v>136587</v>
-      </c>
-      <c r="C53" t="s">
-        <v>481</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="J53" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6454,413 +6036,381 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="X53" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="Y53" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59125</v>
       </c>
-      <c r="B54" t="n">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>490</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="J54" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="K54" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="L54" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s">
-        <v>82</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
       <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>496</v>
-      </c>
-      <c r="X54" t="s">
-        <v>497</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59125</v>
       </c>
-      <c r="B55" t="n">
-        <v>32532</v>
-      </c>
-      <c r="C55" t="s">
-        <v>499</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="J55" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="K55" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="O55" t="s">
-        <v>82</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>4</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="X55" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="Y55" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59125</v>
       </c>
-      <c r="B56" t="n">
-        <v>136567</v>
-      </c>
-      <c r="C56" t="s">
-        <v>252</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="J56" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="O56" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
       <c r="X56" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="Y56" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59125</v>
       </c>
-      <c r="B57" t="n">
-        <v>91659</v>
-      </c>
-      <c r="C57" t="s">
-        <v>518</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="J57" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="K57" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="X57" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="Y57" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59125</v>
       </c>
-      <c r="B58" t="n">
-        <v>136588</v>
-      </c>
-      <c r="C58" t="s">
-        <v>526</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
       <c r="J58" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
       <c r="K58" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="L58" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
-      </c>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="X58" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="Y58" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59125</v>
       </c>
-      <c r="B59" t="n">
-        <v>19814</v>
-      </c>
-      <c r="C59" t="s">
-        <v>535</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="J59" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="K59" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="L59" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="O59" t="s">
-        <v>82</v>
-      </c>
-      <c r="P59" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
       <c r="Q59" t="n">
         <v>5</v>
       </c>
@@ -6874,134 +6424,130 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="X59" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="Y59" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59125</v>
       </c>
-      <c r="B60" t="n">
-        <v>42084</v>
-      </c>
-      <c r="C60" t="s">
-        <v>543</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="J60" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="K60" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="L60" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
-      </c>
-      <c r="P60" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q60" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
       <c r="R60" t="n">
         <v>3</v>
       </c>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>497</v>
+      </c>
+      <c r="X60" t="s">
+        <v>498</v>
+      </c>
       <c r="Y60" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59125</v>
       </c>
-      <c r="B61" t="n">
-        <v>79747</v>
-      </c>
-      <c r="C61" t="s">
-        <v>550</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="J61" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
       <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>5</v>
@@ -7010,210 +6556,196 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="X61" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="Y61" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59125</v>
       </c>
-      <c r="B62" t="n">
-        <v>136589</v>
-      </c>
-      <c r="C62" t="s">
-        <v>559</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="J62" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="K62" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="L62" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="O62" t="s">
-        <v>64</v>
-      </c>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="s"/>
-      <c r="S62" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>4</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>566</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59125</v>
       </c>
-      <c r="B63" t="n">
-        <v>136590</v>
-      </c>
-      <c r="C63" t="s">
-        <v>567</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="J63" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="K63" t="s">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="L63" t="s">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="O63" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="X63" t="s">
-        <v>574</v>
+        <v>519</v>
       </c>
       <c r="Y63" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59125</v>
       </c>
-      <c r="B64" t="n">
-        <v>136591</v>
-      </c>
-      <c r="C64" t="s">
-        <v>576</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="J64" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="K64" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="L64" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="O64" t="s">
-        <v>64</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -7221,59 +6753,55 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>581</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59125</v>
       </c>
-      <c r="B65" t="n">
-        <v>12412</v>
-      </c>
-      <c r="C65" t="s">
-        <v>582</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="J65" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s">
-        <v>586</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s">
-        <v>587</v>
+        <v>532</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="O65" t="s">
-        <v>82</v>
-      </c>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
       <c r="S65" t="n">
         <v>4</v>
@@ -7285,70 +6813,66 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>533</v>
+      </c>
+      <c r="X65" t="s">
+        <v>534</v>
+      </c>
       <c r="Y65" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59125</v>
       </c>
-      <c r="B66" t="n">
-        <v>6449</v>
-      </c>
-      <c r="C66" t="s">
-        <v>589</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="J66" t="s">
-        <v>592</v>
+        <v>538</v>
       </c>
       <c r="K66" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="L66" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="O66" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>4</v>
-      </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
         <v>5</v>
@@ -7359,70 +6883,62 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59125</v>
       </c>
-      <c r="B67" t="n">
-        <v>677</v>
-      </c>
-      <c r="C67" t="s">
-        <v>596</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="J67" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="K67" t="s">
-        <v>599</v>
+        <v>544</v>
       </c>
       <c r="L67" t="s">
-        <v>600</v>
+        <v>545</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="O67" t="s">
-        <v>82</v>
-      </c>
-      <c r="P67" t="n">
-        <v>3</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="n">
         <v>4</v>
       </c>
-      <c r="R67" t="n">
-        <v>4</v>
-      </c>
+      <c r="R67" t="s"/>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -7430,63 +6946,59 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>600</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59125</v>
       </c>
-      <c r="B68" t="n">
-        <v>136592</v>
-      </c>
-      <c r="C68" t="s">
-        <v>601</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>603</v>
+        <v>548</v>
       </c>
       <c r="J68" t="s">
-        <v>604</v>
+        <v>549</v>
       </c>
       <c r="K68" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="L68" t="s">
-        <v>606</v>
+        <v>551</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="O68" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S68" t="n">
         <v>5</v>
@@ -7501,63 +7013,59 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59125</v>
       </c>
-      <c r="B69" t="n">
-        <v>17624</v>
-      </c>
-      <c r="C69" t="s">
-        <v>608</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="J69" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="K69" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="L69" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="O69" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
@@ -7572,63 +7080,59 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>615</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59125</v>
       </c>
-      <c r="B70" t="n">
-        <v>9148</v>
-      </c>
-      <c r="C70" t="s">
-        <v>616</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>617</v>
+        <v>557</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="J70" t="s">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="K70" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="L70" t="s">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>622</v>
+        <v>552</v>
       </c>
       <c r="O70" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -7643,54 +7147,50 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>621</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59125</v>
       </c>
-      <c r="B71" t="n">
-        <v>95902</v>
-      </c>
-      <c r="C71" t="s">
-        <v>623</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>625</v>
+        <v>564</v>
       </c>
       <c r="J71" t="s">
-        <v>626</v>
+        <v>565</v>
       </c>
       <c r="K71" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="L71" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="O71" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7714,54 +7214,50 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59125</v>
       </c>
-      <c r="B72" t="n">
-        <v>28095</v>
-      </c>
-      <c r="C72" t="s">
-        <v>630</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="J72" t="s">
-        <v>633</v>
+        <v>572</v>
       </c>
       <c r="K72" t="s">
-        <v>634</v>
+        <v>573</v>
       </c>
       <c r="L72" t="s">
-        <v>635</v>
+        <v>574</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
       <c r="O72" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7773,11 +7269,11 @@
         <v>4</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -7785,63 +7281,59 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>635</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59125</v>
       </c>
-      <c r="B73" t="n">
-        <v>136593</v>
-      </c>
-      <c r="C73" t="s">
-        <v>637</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="J73" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="K73" t="s">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="L73" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S73" t="n">
         <v>5</v>
@@ -7856,59 +7348,59 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59125</v>
       </c>
-      <c r="B74" t="n">
-        <v>136594</v>
-      </c>
-      <c r="C74" t="s">
-        <v>644</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>645</v>
+        <v>582</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>646</v>
+        <v>583</v>
       </c>
       <c r="J74" t="s">
-        <v>647</v>
+        <v>584</v>
       </c>
       <c r="K74" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="L74" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
+      <c r="N74" t="s">
+        <v>587</v>
+      </c>
+      <c r="O74" t="s">
+        <v>58</v>
+      </c>
       <c r="P74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q74" t="n">
         <v>4</v>
       </c>
       <c r="R74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S74" t="n">
         <v>4</v>
@@ -7923,70 +7415,66 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59125</v>
       </c>
-      <c r="B75" t="n">
-        <v>136595</v>
-      </c>
-      <c r="C75" t="s">
-        <v>649</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="J75" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="K75" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="L75" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="O75" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -7994,45 +7482,41 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>655</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59125</v>
       </c>
-      <c r="B76" t="n">
-        <v>136596</v>
-      </c>
-      <c r="C76" t="s">
-        <v>656</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>657</v>
+        <v>594</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>658</v>
+        <v>595</v>
       </c>
       <c r="J76" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
       <c r="K76" t="s">
-        <v>660</v>
+        <v>585</v>
       </c>
       <c r="L76" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
@@ -8040,7 +7524,7 @@
       <c r="N76" t="s"/>
       <c r="O76" t="s"/>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
         <v>4</v>
@@ -8049,11 +7533,11 @@
         <v>5</v>
       </c>
       <c r="S76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T76" t="s"/>
       <c r="U76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -8061,66 +7545,66 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>59125</v>
       </c>
-      <c r="B77" t="n">
-        <v>136597</v>
-      </c>
-      <c r="C77" t="s">
-        <v>662</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>663</v>
+        <v>598</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>664</v>
+        <v>599</v>
       </c>
       <c r="J77" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="K77" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="L77" t="s">
-        <v>667</v>
+        <v>602</v>
       </c>
       <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>593</v>
+      </c>
+      <c r="O77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
         <v>2</v>
-      </c>
-      <c r="N77" t="s"/>
-      <c r="O77" t="s"/>
-      <c r="P77" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2</v>
-      </c>
-      <c r="R77" t="n">
-        <v>2</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1</v>
       </c>
       <c r="T77" t="s"/>
       <c r="U77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -8128,60 +7612,52 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>59125</v>
       </c>
-      <c r="B78" t="n">
-        <v>22496</v>
-      </c>
-      <c r="C78" t="s">
-        <v>668</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>669</v>
+        <v>604</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>670</v>
+        <v>605</v>
       </c>
       <c r="J78" t="s">
-        <v>671</v>
+        <v>606</v>
       </c>
       <c r="K78" t="s">
-        <v>672</v>
+        <v>607</v>
       </c>
       <c r="L78" t="s">
-        <v>673</v>
+        <v>608</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
-      <c r="N78" t="s">
-        <v>636</v>
-      </c>
-      <c r="O78" t="s">
-        <v>53</v>
-      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
       <c r="P78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R78" t="n">
         <v>5</v>
@@ -8199,70 +7675,62 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>59125</v>
       </c>
-      <c r="B79" t="n">
-        <v>65148</v>
-      </c>
-      <c r="C79" t="s">
-        <v>675</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="J79" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="K79" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
       <c r="L79" t="s">
-        <v>680</v>
+        <v>613</v>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
-      </c>
-      <c r="N79" t="s">
-        <v>681</v>
-      </c>
-      <c r="O79" t="s">
-        <v>82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
       <c r="P79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T79" t="s"/>
       <c r="U79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -8270,51 +7738,51 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>682</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>59125</v>
       </c>
-      <c r="B80" t="n">
-        <v>2822</v>
-      </c>
-      <c r="C80" t="s">
-        <v>683</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>684</v>
+        <v>614</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
-        <v>685</v>
+        <v>615</v>
       </c>
       <c r="J80" t="s">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="K80" t="s">
-        <v>687</v>
+        <v>617</v>
       </c>
       <c r="L80" t="s">
-        <v>688</v>
+        <v>618</v>
       </c>
       <c r="M80" t="n">
-        <v>5</v>
-      </c>
-      <c r="N80" t="s"/>
-      <c r="O80" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>587</v>
+      </c>
+      <c r="O80" t="s">
+        <v>68</v>
+      </c>
       <c r="P80" t="n">
         <v>5</v>
       </c>
@@ -8322,7 +7790,7 @@
         <v>5</v>
       </c>
       <c r="R80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S80" t="n">
         <v>5</v>
@@ -8337,63 +7805,59 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>688</v>
+        <v>619</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>59125</v>
       </c>
-      <c r="B81" t="n">
-        <v>111171</v>
-      </c>
-      <c r="C81" t="s">
-        <v>689</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I81" t="s">
-        <v>691</v>
+        <v>621</v>
       </c>
       <c r="J81" t="s">
-        <v>692</v>
+        <v>622</v>
       </c>
       <c r="K81" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
       <c r="L81" t="s">
-        <v>694</v>
+        <v>624</v>
       </c>
       <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>625</v>
+      </c>
+      <c r="O81" t="s">
+        <v>93</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
         <v>3</v>
-      </c>
-      <c r="N81" t="s">
-        <v>681</v>
-      </c>
-      <c r="O81" t="s">
-        <v>64</v>
-      </c>
-      <c r="P81" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>4</v>
-      </c>
-      <c r="R81" t="n">
-        <v>4</v>
       </c>
       <c r="S81" t="n">
         <v>4</v>
@@ -8408,66 +7872,58 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>695</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>59125</v>
       </c>
-      <c r="B82" t="n">
-        <v>30701</v>
-      </c>
-      <c r="C82" t="s">
-        <v>696</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>697</v>
+        <v>627</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>698</v>
+        <v>628</v>
       </c>
       <c r="J82" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
       <c r="K82" t="s">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="L82" t="s">
-        <v>701</v>
+        <v>631</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
-      </c>
-      <c r="N82" t="s">
-        <v>702</v>
-      </c>
-      <c r="O82" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
       <c r="P82" t="n">
         <v>5</v>
       </c>
       <c r="Q82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R82" t="n">
         <v>4</v>
       </c>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T82" t="s"/>
       <c r="U82" t="n">
@@ -8479,54 +7935,50 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>703</v>
+        <v>631</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>59125</v>
       </c>
-      <c r="B83" t="n">
-        <v>136598</v>
-      </c>
-      <c r="C83" t="s">
-        <v>704</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>705</v>
+        <v>632</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>706</v>
+        <v>633</v>
       </c>
       <c r="J83" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="K83" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="L83" t="s">
-        <v>709</v>
+        <v>636</v>
       </c>
       <c r="M83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>710</v>
+        <v>625</v>
       </c>
       <c r="O83" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8535,10 +7987,10 @@
         <v>4</v>
       </c>
       <c r="R83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T83" t="s"/>
       <c r="U83" t="n">
@@ -8550,70 +8002,66 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>711</v>
+        <v>637</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>59125</v>
       </c>
-      <c r="B84" t="n">
-        <v>136599</v>
-      </c>
-      <c r="C84" t="s">
-        <v>712</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>713</v>
+        <v>638</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>714</v>
+        <v>639</v>
       </c>
       <c r="J84" t="s">
-        <v>715</v>
+        <v>640</v>
       </c>
       <c r="K84" t="s">
-        <v>716</v>
+        <v>641</v>
       </c>
       <c r="L84" t="s">
-        <v>717</v>
+        <v>642</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>718</v>
+        <v>643</v>
       </c>
       <c r="O84" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q84" t="n">
         <v>4</v>
       </c>
       <c r="R84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T84" t="s"/>
       <c r="U84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -8621,66 +8069,66 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>719</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>59125</v>
       </c>
-      <c r="B85" t="n">
-        <v>136600</v>
-      </c>
-      <c r="C85" t="s">
-        <v>720</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>721</v>
+        <v>645</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>722</v>
+        <v>646</v>
       </c>
       <c r="J85" t="s">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="K85" t="s">
-        <v>724</v>
+        <v>648</v>
       </c>
       <c r="L85" t="s">
-        <v>725</v>
+        <v>649</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
-      <c r="N85" t="s"/>
-      <c r="O85" t="s"/>
+      <c r="N85" t="s">
+        <v>650</v>
+      </c>
+      <c r="O85" t="s">
+        <v>58</v>
+      </c>
       <c r="P85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q85" t="n">
         <v>4</v>
       </c>
       <c r="R85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S85" t="n">
         <v>5</v>
       </c>
       <c r="T85" t="s"/>
       <c r="U85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -8688,70 +8136,66 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>725</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>59125</v>
       </c>
-      <c r="B86" t="n">
-        <v>136601</v>
-      </c>
-      <c r="C86" t="s">
-        <v>726</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>727</v>
+        <v>652</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s">
-        <v>728</v>
+        <v>653</v>
       </c>
       <c r="J86" t="s">
-        <v>729</v>
+        <v>654</v>
       </c>
       <c r="K86" t="s">
-        <v>730</v>
+        <v>655</v>
       </c>
       <c r="L86" t="s">
-        <v>731</v>
+        <v>656</v>
       </c>
       <c r="M86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>732</v>
+        <v>657</v>
       </c>
       <c r="O86" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S86" t="n">
         <v>5</v>
       </c>
       <c r="T86" t="s"/>
       <c r="U86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -8759,63 +8203,55 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>731</v>
+        <v>658</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>59125</v>
       </c>
-      <c r="B87" t="n">
-        <v>136602</v>
-      </c>
-      <c r="C87" t="s">
-        <v>733</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>734</v>
+        <v>659</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I87" t="s">
-        <v>735</v>
+        <v>660</v>
       </c>
       <c r="J87" t="s">
-        <v>736</v>
+        <v>661</v>
       </c>
       <c r="K87" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="L87" t="s">
-        <v>738</v>
+        <v>663</v>
       </c>
       <c r="M87" t="n">
-        <v>5</v>
-      </c>
-      <c r="N87" t="s">
-        <v>732</v>
-      </c>
-      <c r="O87" t="s">
-        <v>64</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
       <c r="P87" t="n">
         <v>5</v>
       </c>
       <c r="Q87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S87" t="n">
         <v>5</v>
@@ -8830,62 +8266,62 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>738</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>59125</v>
       </c>
-      <c r="B88" t="n">
-        <v>136603</v>
-      </c>
-      <c r="C88" t="s">
-        <v>739</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>740</v>
+        <v>664</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I88" t="s">
-        <v>741</v>
+        <v>665</v>
       </c>
       <c r="J88" t="s">
-        <v>742</v>
+        <v>666</v>
       </c>
       <c r="K88" t="s">
-        <v>743</v>
+        <v>667</v>
       </c>
       <c r="L88" t="s">
-        <v>744</v>
+        <v>668</v>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
-      </c>
-      <c r="N88" t="s"/>
-      <c r="O88" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>669</v>
+      </c>
+      <c r="O88" t="s">
+        <v>93</v>
+      </c>
       <c r="P88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q88" t="n">
         <v>5</v>
       </c>
       <c r="R88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T88" t="s"/>
       <c r="U88" t="n">
@@ -8897,60 +8333,56 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>744</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>59125</v>
       </c>
-      <c r="B89" t="n">
-        <v>136604</v>
-      </c>
-      <c r="C89" t="s">
-        <v>745</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>746</v>
+        <v>670</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I89" t="s">
-        <v>747</v>
+        <v>671</v>
       </c>
       <c r="J89" t="s">
-        <v>748</v>
+        <v>672</v>
       </c>
       <c r="K89" t="s">
-        <v>749</v>
+        <v>673</v>
       </c>
       <c r="L89" t="s">
-        <v>750</v>
+        <v>674</v>
       </c>
       <c r="M89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>751</v>
+        <v>669</v>
       </c>
       <c r="O89" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R89" t="n">
         <v>5</v>
@@ -8960,7 +8392,7 @@
       </c>
       <c r="T89" t="s"/>
       <c r="U89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -8968,66 +8400,58 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>750</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>59125</v>
       </c>
-      <c r="B90" t="n">
-        <v>136605</v>
-      </c>
-      <c r="C90" t="s">
-        <v>752</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>753</v>
+        <v>675</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s">
-        <v>754</v>
+        <v>676</v>
       </c>
       <c r="J90" t="s">
-        <v>755</v>
+        <v>677</v>
       </c>
       <c r="K90" t="s">
-        <v>756</v>
+        <v>678</v>
       </c>
       <c r="L90" t="s">
-        <v>757</v>
+        <v>679</v>
       </c>
       <c r="M90" t="n">
-        <v>4</v>
-      </c>
-      <c r="N90" t="s">
-        <v>758</v>
-      </c>
-      <c r="O90" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
       <c r="P90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q90" t="n">
         <v>5</v>
       </c>
       <c r="R90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T90" t="s"/>
       <c r="U90" t="n">
@@ -9039,56 +8463,56 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>59125</v>
       </c>
-      <c r="B91" t="n">
-        <v>136606</v>
-      </c>
-      <c r="C91" t="s">
-        <v>760</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>761</v>
+        <v>680</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I91" t="s">
-        <v>762</v>
+        <v>681</v>
       </c>
       <c r="J91" t="s">
-        <v>763</v>
+        <v>682</v>
       </c>
       <c r="K91" t="s">
-        <v>764</v>
+        <v>683</v>
       </c>
       <c r="L91" t="s">
-        <v>765</v>
+        <v>684</v>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
-      </c>
-      <c r="N91" t="s"/>
-      <c r="O91" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>685</v>
+      </c>
+      <c r="O91" t="s">
+        <v>58</v>
+      </c>
       <c r="P91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R91" t="n">
         <v>5</v>
@@ -9098,7 +8522,7 @@
       </c>
       <c r="T91" t="s"/>
       <c r="U91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -9106,66 +8530,66 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>765</v>
+        <v>684</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>59125</v>
       </c>
-      <c r="B92" t="n">
-        <v>136607</v>
-      </c>
-      <c r="C92" t="s">
-        <v>766</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>767</v>
+        <v>686</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I92" t="s">
-        <v>768</v>
+        <v>687</v>
       </c>
       <c r="J92" t="s">
-        <v>769</v>
+        <v>688</v>
       </c>
       <c r="K92" t="s">
-        <v>770</v>
+        <v>689</v>
       </c>
       <c r="L92" t="s">
-        <v>771</v>
+        <v>690</v>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>772</v>
+        <v>691</v>
       </c>
       <c r="O92" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P92" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q92" t="s"/>
-      <c r="R92" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
       <c r="S92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T92" t="s"/>
       <c r="U92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -9173,70 +8597,62 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>773</v>
+        <v>692</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>59125</v>
       </c>
-      <c r="B93" t="n">
-        <v>136608</v>
-      </c>
-      <c r="C93" t="s">
-        <v>774</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>775</v>
+        <v>693</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I93" t="s">
-        <v>776</v>
+        <v>694</v>
       </c>
       <c r="J93" t="s">
-        <v>777</v>
+        <v>695</v>
       </c>
       <c r="K93" t="s">
-        <v>778</v>
+        <v>696</v>
       </c>
       <c r="L93" t="s">
-        <v>779</v>
+        <v>697</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
-      </c>
-      <c r="N93" t="s">
-        <v>780</v>
-      </c>
-      <c r="O93" t="s">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
       <c r="P93" t="n">
         <v>5</v>
       </c>
       <c r="Q93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T93" t="s"/>
       <c r="U93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
@@ -9244,70 +8660,62 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>781</v>
+        <v>697</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>59125</v>
       </c>
-      <c r="B94" t="n">
-        <v>715</v>
-      </c>
-      <c r="C94" t="s">
-        <v>782</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>783</v>
+        <v>698</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I94" t="s">
-        <v>784</v>
+        <v>699</v>
       </c>
       <c r="J94" t="s">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="K94" t="s">
-        <v>786</v>
+        <v>701</v>
       </c>
       <c r="L94" t="s">
-        <v>787</v>
+        <v>702</v>
       </c>
       <c r="M94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>788</v>
+        <v>703</v>
       </c>
       <c r="O94" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="P94" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>4</v>
-      </c>
-      <c r="R94" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
       <c r="S94" t="n">
         <v>4</v>
       </c>
       <c r="T94" t="s"/>
       <c r="U94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -9315,70 +8723,66 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>787</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>59125</v>
       </c>
-      <c r="B95" t="n">
-        <v>136609</v>
-      </c>
-      <c r="C95" t="s">
-        <v>789</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>790</v>
+        <v>705</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I95" t="s">
-        <v>791</v>
+        <v>706</v>
       </c>
       <c r="J95" t="s">
-        <v>792</v>
+        <v>707</v>
       </c>
       <c r="K95" t="s">
-        <v>793</v>
+        <v>708</v>
       </c>
       <c r="L95" t="s">
-        <v>794</v>
+        <v>709</v>
       </c>
       <c r="M95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>795</v>
+        <v>710</v>
       </c>
       <c r="O95" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="P95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T95" t="s"/>
       <c r="U95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -9386,66 +8790,62 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>794</v>
+        <v>711</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>59125</v>
       </c>
-      <c r="B96" t="n">
-        <v>136610</v>
-      </c>
-      <c r="C96" t="s">
-        <v>796</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>797</v>
+        <v>712</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I96" t="s">
-        <v>798</v>
+        <v>713</v>
       </c>
       <c r="J96" t="s">
-        <v>799</v>
+        <v>714</v>
       </c>
       <c r="K96" t="s">
-        <v>800</v>
+        <v>715</v>
       </c>
       <c r="L96" t="s">
-        <v>801</v>
+        <v>716</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>802</v>
+        <v>717</v>
       </c>
       <c r="O96" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q96" t="n">
         <v>4</v>
       </c>
       <c r="R96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T96" t="s"/>
       <c r="U96" t="n">
@@ -9457,59 +8857,59 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>801</v>
+        <v>716</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>59125</v>
       </c>
-      <c r="B97" t="n">
-        <v>136611</v>
-      </c>
-      <c r="C97" t="s">
-        <v>803</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>804</v>
+        <v>718</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I97" t="s">
-        <v>805</v>
+        <v>719</v>
       </c>
       <c r="J97" t="s">
-        <v>806</v>
+        <v>720</v>
       </c>
       <c r="K97" t="s">
-        <v>807</v>
+        <v>721</v>
       </c>
       <c r="L97" t="s">
-        <v>808</v>
+        <v>722</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
-      <c r="N97" t="s"/>
-      <c r="O97" t="s"/>
+      <c r="N97" t="s">
+        <v>723</v>
+      </c>
+      <c r="O97" t="s">
+        <v>159</v>
+      </c>
       <c r="P97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q97" t="n">
         <v>5</v>
       </c>
       <c r="R97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S97" t="n">
         <v>5</v>
@@ -9524,70 +8924,66 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>809</v>
+        <v>722</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>59125</v>
       </c>
-      <c r="B98" t="n">
-        <v>136612</v>
-      </c>
-      <c r="C98" t="s">
-        <v>810</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>811</v>
+        <v>724</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I98" t="s">
-        <v>812</v>
+        <v>725</v>
       </c>
       <c r="J98" t="s">
-        <v>813</v>
+        <v>726</v>
       </c>
       <c r="K98" t="s">
-        <v>814</v>
+        <v>727</v>
       </c>
       <c r="L98" t="s">
-        <v>815</v>
+        <v>728</v>
       </c>
       <c r="M98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>816</v>
+        <v>729</v>
       </c>
       <c r="O98" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R98" t="n">
         <v>5</v>
       </c>
       <c r="S98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T98" t="s"/>
       <c r="U98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -9595,7 +8991,137 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>817</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59125</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>730</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>731</v>
+      </c>
+      <c r="J99" t="s">
+        <v>732</v>
+      </c>
+      <c r="K99" t="s">
+        <v>733</v>
+      </c>
+      <c r="L99" t="s">
+        <v>734</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59125</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>736</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>737</v>
+      </c>
+      <c r="J100" t="s">
+        <v>738</v>
+      </c>
+      <c r="K100" t="s">
+        <v>739</v>
+      </c>
+      <c r="L100" t="s">
+        <v>740</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>741</v>
+      </c>
+      <c r="O100" t="s">
+        <v>58</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
